--- a/Dataset/RedundanzEvaluation_v2.xlsx
+++ b/Dataset/RedundanzEvaluation_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taentzer/gabi/Marburg/Lehre/Abschlussarbeiten/AmirNejad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Projects\_myProjects\RedundancyAndConflictAnalysis\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D8F8DAB-236F-934C-A7FC-3E33CF654213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688F52E7-58EF-4E2A-A628-FBD6EF83E124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28380" windowHeight="16800" xr2:uid="{F275B1B7-A2D2-43EC-8026-0BDB2E0600A4}"/>
+    <workbookView xWindow="38290" yWindow="-80" windowWidth="38620" windowHeight="21100" xr2:uid="{F275B1B7-A2D2-43EC-8026-0BDB2E0600A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -8191,6 +8191,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8221,18 +8230,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -20684,7 +20684,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{625B5082-58EE-4DBF-AFD7-4C9A93D82F36}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{625B5082-58EE-4DBF-AFD7-4C9A93D82F36}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -20827,9 +20827,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -20867,7 +20867,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -20973,7 +20973,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -21115,7 +21115,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21130,18 +21130,18 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="46.5" customWidth="1"/>
-    <col min="5" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" customWidth="1"/>
+    <col min="4" max="4" width="46.453125" customWidth="1"/>
+    <col min="5" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>1863</v>
       </c>
@@ -21156,7 +21156,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="124.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -21191,7 +21191,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -21220,7 +21220,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -21249,7 +21249,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -21278,7 +21278,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -21307,7 +21307,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -21336,7 +21336,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -21365,7 +21365,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -21394,7 +21394,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -21425,7 +21425,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -21487,7 +21487,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -21518,7 +21518,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -21549,7 +21549,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -21580,7 +21580,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -21611,7 +21611,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -21642,7 +21642,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -21673,7 +21673,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -21704,7 +21704,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -21735,7 +21735,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -21766,7 +21766,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -21797,7 +21797,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -21828,7 +21828,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -21859,7 +21859,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -21890,7 +21890,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -21921,7 +21921,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -21950,7 +21950,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -21981,7 +21981,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -22012,7 +22012,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -22043,7 +22043,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -22074,7 +22074,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -22105,7 +22105,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -22136,7 +22136,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -22167,7 +22167,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -22198,7 +22198,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -22229,7 +22229,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -22260,7 +22260,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -22291,7 +22291,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -22322,7 +22322,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -22351,7 +22351,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -22409,7 +22409,7 @@
       </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -22438,7 +22438,7 @@
       </c>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -22467,7 +22467,7 @@
       </c>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -22496,7 +22496,7 @@
       </c>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -22525,7 +22525,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -22556,7 +22556,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -22585,7 +22585,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="162" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="162" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -22614,7 +22614,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -22643,7 +22643,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -22672,7 +22672,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -22701,7 +22701,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -22732,7 +22732,7 @@
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -22761,7 +22761,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -22790,7 +22790,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -22819,7 +22819,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -22848,7 +22848,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -22877,7 +22877,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -22906,7 +22906,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -22935,7 +22935,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -22964,7 +22964,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -22993,7 +22993,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -23022,7 +23022,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -23051,7 +23051,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -23080,7 +23080,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -23109,7 +23109,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -23138,7 +23138,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -23167,7 +23167,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -23196,7 +23196,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -23225,7 +23225,7 @@
       </c>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -23254,7 +23254,7 @@
       </c>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -23283,7 +23283,7 @@
       </c>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -23312,7 +23312,7 @@
       </c>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -23341,7 +23341,7 @@
       </c>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -23370,7 +23370,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="150.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -23399,7 +23399,7 @@
       </c>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -23428,7 +23428,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -23457,7 +23457,7 @@
       </c>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -23486,7 +23486,7 @@
       </c>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="176" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -23517,7 +23517,7 @@
       </c>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -23548,7 +23548,7 @@
       </c>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -23577,7 +23577,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -23606,7 +23606,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -23635,7 +23635,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -23664,7 +23664,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -23693,7 +23693,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -23722,7 +23722,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -23751,7 +23751,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -23780,7 +23780,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -23811,7 +23811,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -23840,7 +23840,7 @@
       </c>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -23869,7 +23869,7 @@
       </c>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -23898,7 +23898,7 @@
       </c>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -23927,7 +23927,7 @@
       </c>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -23956,7 +23956,7 @@
       </c>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -23985,7 +23985,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -24014,7 +24014,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -24043,7 +24043,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -24072,7 +24072,7 @@
       </c>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -24101,7 +24101,7 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -24130,7 +24130,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -24159,7 +24159,7 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -24188,7 +24188,7 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -24217,7 +24217,7 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -24246,7 +24246,7 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -24275,7 +24275,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -24304,7 +24304,7 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:11" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -24333,7 +24333,7 @@
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -24362,7 +24362,7 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -24391,7 +24391,7 @@
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
     </row>
-    <row r="111" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -24420,7 +24420,7 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -24449,7 +24449,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
     </row>
-    <row r="113" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -24478,7 +24478,7 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="1:11" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="139.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -24507,7 +24507,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
     </row>
-    <row r="115" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -24536,7 +24536,7 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -24565,7 +24565,7 @@
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
     </row>
-    <row r="117" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -24594,7 +24594,7 @@
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -24623,7 +24623,7 @@
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
     </row>
-    <row r="119" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -24652,7 +24652,7 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -24681,7 +24681,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
     </row>
-    <row r="121" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -24710,7 +24710,7 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -24739,7 +24739,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
     </row>
-    <row r="123" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -24768,7 +24768,7 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -24797,7 +24797,7 @@
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -24826,7 +24826,7 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -24855,7 +24855,7 @@
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -24884,7 +24884,7 @@
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -24913,7 +24913,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -24942,7 +24942,7 @@
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -24971,7 +24971,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -25000,7 +25000,7 @@
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -25029,7 +25029,7 @@
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
     </row>
-    <row r="133" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -25058,7 +25058,7 @@
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -25087,7 +25087,7 @@
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -25116,7 +25116,7 @@
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
     </row>
-    <row r="136" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -25145,7 +25145,7 @@
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
     </row>
-    <row r="137" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -25174,7 +25174,7 @@
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -25203,7 +25203,7 @@
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
     </row>
-    <row r="139" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -25232,7 +25232,7 @@
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -25261,7 +25261,7 @@
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -25290,7 +25290,7 @@
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
     </row>
-    <row r="142" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -25319,7 +25319,7 @@
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
     </row>
-    <row r="143" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -25348,7 +25348,7 @@
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
     </row>
-    <row r="144" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -25377,7 +25377,7 @@
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
     </row>
-    <row r="145" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -25406,7 +25406,7 @@
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
     </row>
-    <row r="146" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -25435,7 +25435,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -25464,7 +25464,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -25493,7 +25493,7 @@
       </c>
       <c r="K148" s="1"/>
     </row>
-    <row r="149" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -25522,7 +25522,7 @@
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="1:11" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" ht="160.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -25551,7 +25551,7 @@
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
     </row>
-    <row r="151" spans="1:11" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="154.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -25580,7 +25580,7 @@
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
     </row>
-    <row r="152" spans="1:11" ht="176" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -25609,7 +25609,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
     </row>
-    <row r="153" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -25640,7 +25640,7 @@
       </c>
       <c r="K153" s="1"/>
     </row>
-    <row r="154" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -25669,7 +25669,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
     </row>
-    <row r="155" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -25698,7 +25698,7 @@
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
     </row>
-    <row r="156" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -25727,7 +25727,7 @@
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
     </row>
-    <row r="157" spans="1:11" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -25756,7 +25756,7 @@
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
     </row>
-    <row r="158" spans="1:11" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="141.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -25785,7 +25785,7 @@
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
     </row>
-    <row r="159" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -25814,7 +25814,7 @@
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
     </row>
-    <row r="160" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -25843,7 +25843,7 @@
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
     </row>
-    <row r="161" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -25872,7 +25872,7 @@
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
     </row>
-    <row r="162" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -25901,7 +25901,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
     </row>
-    <row r="163" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -25930,7 +25930,7 @@
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
     </row>
-    <row r="164" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -25959,7 +25959,7 @@
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
     </row>
-    <row r="165" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -25988,7 +25988,7 @@
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -26017,7 +26017,7 @@
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
     </row>
-    <row r="167" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -26048,7 +26048,7 @@
       </c>
       <c r="K167" s="1"/>
     </row>
-    <row r="168" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -26077,7 +26077,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
     </row>
-    <row r="169" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -26106,7 +26106,7 @@
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
     </row>
-    <row r="170" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -26135,7 +26135,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
     </row>
-    <row r="171" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -26164,7 +26164,7 @@
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
     </row>
-    <row r="172" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -26193,7 +26193,7 @@
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
     </row>
-    <row r="173" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -26222,7 +26222,7 @@
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
     </row>
-    <row r="174" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -26251,7 +26251,7 @@
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -26280,7 +26280,7 @@
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
     </row>
-    <row r="176" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -26309,7 +26309,7 @@
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
     </row>
-    <row r="177" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -26338,7 +26338,7 @@
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
     </row>
-    <row r="178" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -26367,7 +26367,7 @@
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
     </row>
-    <row r="179" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -26396,7 +26396,7 @@
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
     </row>
-    <row r="180" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -26425,7 +26425,7 @@
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
     </row>
-    <row r="181" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -26454,7 +26454,7 @@
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
     </row>
-    <row r="182" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -26483,7 +26483,7 @@
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
     </row>
-    <row r="183" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -26512,7 +26512,7 @@
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
     </row>
-    <row r="184" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -26541,7 +26541,7 @@
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
     </row>
-    <row r="185" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -26570,7 +26570,7 @@
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
     </row>
-    <row r="186" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -26599,7 +26599,7 @@
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
     </row>
-    <row r="187" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -26628,7 +26628,7 @@
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
     </row>
-    <row r="188" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -26657,7 +26657,7 @@
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
     </row>
-    <row r="189" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -26686,7 +26686,7 @@
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
     </row>
-    <row r="190" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -26715,7 +26715,7 @@
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -26744,7 +26744,7 @@
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
     </row>
-    <row r="192" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -26773,7 +26773,7 @@
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
     </row>
-    <row r="193" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -26802,7 +26802,7 @@
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -26831,7 +26831,7 @@
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
     </row>
-    <row r="195" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -26860,7 +26860,7 @@
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -26889,7 +26889,7 @@
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
     </row>
-    <row r="197" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -26918,7 +26918,7 @@
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
     </row>
-    <row r="198" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -26947,7 +26947,7 @@
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
     </row>
-    <row r="199" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -26976,7 +26976,7 @@
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
     </row>
-    <row r="200" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -27005,7 +27005,7 @@
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -27034,7 +27034,7 @@
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -27063,7 +27063,7 @@
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="1:11" ht="176" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -27092,7 +27092,7 @@
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -27121,7 +27121,7 @@
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
     </row>
-    <row r="205" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -27150,7 +27150,7 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -27179,7 +27179,7 @@
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -27208,7 +27208,7 @@
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -27237,7 +27237,7 @@
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
     </row>
-    <row r="209" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -27266,7 +27266,7 @@
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
     </row>
-    <row r="210" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -27295,7 +27295,7 @@
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
     </row>
-    <row r="211" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -27324,7 +27324,7 @@
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -27353,7 +27353,7 @@
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="1:11" ht="176" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -27382,7 +27382,7 @@
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
     </row>
-    <row r="214" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -27411,7 +27411,7 @@
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
     </row>
-    <row r="215" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -27440,7 +27440,7 @@
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
     </row>
-    <row r="216" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -27469,7 +27469,7 @@
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
     </row>
-    <row r="217" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -27498,7 +27498,7 @@
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
     </row>
-    <row r="218" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -27527,7 +27527,7 @@
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
     </row>
-    <row r="219" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -27556,7 +27556,7 @@
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
     </row>
-    <row r="220" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -27585,7 +27585,7 @@
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
     </row>
-    <row r="221" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -27614,7 +27614,7 @@
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
     </row>
-    <row r="222" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -27643,7 +27643,7 @@
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
     </row>
-    <row r="223" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -27672,7 +27672,7 @@
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -27701,7 +27701,7 @@
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
     </row>
-    <row r="225" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -27730,7 +27730,7 @@
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
     </row>
-    <row r="226" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -27759,7 +27759,7 @@
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
     </row>
-    <row r="227" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -27788,7 +27788,7 @@
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
     </row>
-    <row r="228" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -27817,7 +27817,7 @@
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
     </row>
-    <row r="229" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -27846,7 +27846,7 @@
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
     </row>
-    <row r="230" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -27875,7 +27875,7 @@
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
     </row>
-    <row r="231" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -27904,7 +27904,7 @@
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
     </row>
-    <row r="232" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -27933,7 +27933,7 @@
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
     </row>
-    <row r="233" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -27962,7 +27962,7 @@
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -27991,7 +27991,7 @@
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
     </row>
-    <row r="235" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -28020,7 +28020,7 @@
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
     </row>
-    <row r="236" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -28049,7 +28049,7 @@
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -28078,7 +28078,7 @@
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
     </row>
-    <row r="238" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -28107,7 +28107,7 @@
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
     </row>
-    <row r="239" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -28136,7 +28136,7 @@
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -28165,7 +28165,7 @@
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -28194,7 +28194,7 @@
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
     </row>
-    <row r="242" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -28223,7 +28223,7 @@
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
     </row>
-    <row r="243" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -28252,7 +28252,7 @@
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
     </row>
-    <row r="244" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -28281,7 +28281,7 @@
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
     </row>
-    <row r="245" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -28310,7 +28310,7 @@
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
     </row>
-    <row r="246" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -28339,7 +28339,7 @@
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
     </row>
-    <row r="247" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -28368,7 +28368,7 @@
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
     </row>
-    <row r="248" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -28397,7 +28397,7 @@
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
     </row>
-    <row r="249" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -28426,7 +28426,7 @@
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
     </row>
-    <row r="250" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -28455,7 +28455,7 @@
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
     </row>
-    <row r="251" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -28484,7 +28484,7 @@
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
     </row>
-    <row r="252" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -28513,7 +28513,7 @@
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
     </row>
-    <row r="253" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -28542,7 +28542,7 @@
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
     </row>
-    <row r="254" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -28571,7 +28571,7 @@
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
     </row>
-    <row r="255" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -28600,7 +28600,7 @@
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
     </row>
-    <row r="256" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -28629,7 +28629,7 @@
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
     </row>
-    <row r="257" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -28658,7 +28658,7 @@
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
     </row>
-    <row r="258" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -28687,7 +28687,7 @@
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
     </row>
-    <row r="259" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -28716,7 +28716,7 @@
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
     </row>
-    <row r="260" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -28745,7 +28745,7 @@
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
     </row>
-    <row r="261" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -28774,7 +28774,7 @@
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
     </row>
-    <row r="262" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -28803,7 +28803,7 @@
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
     </row>
-    <row r="263" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -28832,7 +28832,7 @@
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
     </row>
-    <row r="264" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -28861,7 +28861,7 @@
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
     </row>
-    <row r="265" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -28890,7 +28890,7 @@
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
     </row>
-    <row r="266" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -28919,7 +28919,7 @@
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
     </row>
-    <row r="267" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -28948,7 +28948,7 @@
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
     </row>
-    <row r="268" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -28977,7 +28977,7 @@
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
     </row>
-    <row r="269" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -29006,7 +29006,7 @@
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
     </row>
-    <row r="270" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -29035,7 +29035,7 @@
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
     </row>
-    <row r="271" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -29064,7 +29064,7 @@
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
     </row>
-    <row r="272" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -29093,7 +29093,7 @@
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
     </row>
-    <row r="273" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -29122,7 +29122,7 @@
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
     </row>
-    <row r="274" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -29151,7 +29151,7 @@
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
     </row>
-    <row r="275" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -29180,7 +29180,7 @@
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
     </row>
-    <row r="276" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -29209,7 +29209,7 @@
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
     </row>
-    <row r="277" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -29238,7 +29238,7 @@
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
     </row>
-    <row r="278" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -29267,7 +29267,7 @@
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
     </row>
-    <row r="279" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -29296,7 +29296,7 @@
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
     </row>
-    <row r="280" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -29325,7 +29325,7 @@
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
     </row>
-    <row r="281" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -29354,7 +29354,7 @@
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
     </row>
-    <row r="282" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -29383,7 +29383,7 @@
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
     </row>
-    <row r="283" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -29412,7 +29412,7 @@
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
     </row>
-    <row r="284" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -29441,7 +29441,7 @@
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
     </row>
-    <row r="285" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -29470,7 +29470,7 @@
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
     </row>
-    <row r="286" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -29499,7 +29499,7 @@
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
     </row>
-    <row r="287" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -29528,7 +29528,7 @@
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
     </row>
-    <row r="288" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -29557,7 +29557,7 @@
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
     </row>
-    <row r="289" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -29586,7 +29586,7 @@
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
     </row>
-    <row r="290" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -29615,7 +29615,7 @@
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
     </row>
-    <row r="291" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -29644,7 +29644,7 @@
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
     </row>
-    <row r="292" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -29673,7 +29673,7 @@
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
     </row>
-    <row r="293" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -29702,7 +29702,7 @@
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
     </row>
-    <row r="294" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -29731,7 +29731,7 @@
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
     </row>
-    <row r="295" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -29760,7 +29760,7 @@
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
     </row>
-    <row r="296" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -29789,7 +29789,7 @@
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
     </row>
-    <row r="297" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -29818,7 +29818,7 @@
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
     </row>
-    <row r="298" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -29847,7 +29847,7 @@
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
     </row>
-    <row r="299" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -29876,7 +29876,7 @@
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
     </row>
-    <row r="300" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -29905,7 +29905,7 @@
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
     </row>
-    <row r="301" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -29934,7 +29934,7 @@
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
     </row>
-    <row r="302" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -29963,7 +29963,7 @@
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
     </row>
-    <row r="303" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -29992,7 +29992,7 @@
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
     </row>
-    <row r="304" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -30021,7 +30021,7 @@
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
     </row>
-    <row r="305" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -30050,7 +30050,7 @@
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
     </row>
-    <row r="306" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -30079,7 +30079,7 @@
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
     </row>
-    <row r="307" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -30108,7 +30108,7 @@
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
     </row>
-    <row r="308" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -30137,7 +30137,7 @@
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
     </row>
-    <row r="309" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -30166,7 +30166,7 @@
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
     </row>
-    <row r="310" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -30195,7 +30195,7 @@
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
     </row>
-    <row r="311" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -30224,7 +30224,7 @@
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
     </row>
-    <row r="312" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -30253,7 +30253,7 @@
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
     </row>
-    <row r="313" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -30282,7 +30282,7 @@
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
     </row>
-    <row r="314" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -30311,7 +30311,7 @@
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
     </row>
-    <row r="315" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -30340,7 +30340,7 @@
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
     </row>
-    <row r="316" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -30369,7 +30369,7 @@
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
     </row>
-    <row r="317" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -30398,7 +30398,7 @@
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
     </row>
-    <row r="318" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -30427,7 +30427,7 @@
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
     </row>
-    <row r="319" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -30456,7 +30456,7 @@
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
     </row>
-    <row r="320" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -30485,7 +30485,7 @@
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
     </row>
-    <row r="321" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -30514,7 +30514,7 @@
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
     </row>
-    <row r="322" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -30543,7 +30543,7 @@
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
     </row>
-    <row r="323" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -30572,7 +30572,7 @@
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
     </row>
-    <row r="324" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -30601,7 +30601,7 @@
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
     </row>
-    <row r="325" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -30630,7 +30630,7 @@
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
     </row>
-    <row r="326" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -30659,7 +30659,7 @@
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
     </row>
-    <row r="327" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -30688,7 +30688,7 @@
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
     </row>
-    <row r="328" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -30717,7 +30717,7 @@
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
     </row>
-    <row r="329" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -30746,7 +30746,7 @@
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
     </row>
-    <row r="330" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -30775,7 +30775,7 @@
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
     </row>
-    <row r="331" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -30804,7 +30804,7 @@
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
     </row>
-    <row r="332" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -30833,7 +30833,7 @@
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
     </row>
-    <row r="333" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -30862,7 +30862,7 @@
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
     </row>
-    <row r="334" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -30891,7 +30891,7 @@
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
     </row>
-    <row r="335" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -30920,7 +30920,7 @@
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
     </row>
-    <row r="336" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -30949,7 +30949,7 @@
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
     </row>
-    <row r="337" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -30978,7 +30978,7 @@
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
     </row>
-    <row r="338" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -31007,7 +31007,7 @@
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
     </row>
-    <row r="339" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -31036,7 +31036,7 @@
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
     </row>
-    <row r="340" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -31065,7 +31065,7 @@
       <c r="J340" s="1"/>
       <c r="K340" s="1"/>
     </row>
-    <row r="341" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -31094,7 +31094,7 @@
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
     </row>
-    <row r="342" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -31123,7 +31123,7 @@
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
     </row>
-    <row r="343" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -31152,7 +31152,7 @@
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
     </row>
-    <row r="344" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -31181,7 +31181,7 @@
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
     </row>
-    <row r="345" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -31210,7 +31210,7 @@
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
     </row>
-    <row r="346" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -31239,7 +31239,7 @@
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
     </row>
-    <row r="347" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -31268,7 +31268,7 @@
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
     </row>
-    <row r="348" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -31297,7 +31297,7 @@
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
     </row>
-    <row r="349" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -31326,7 +31326,7 @@
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
     </row>
-    <row r="350" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -31355,7 +31355,7 @@
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
     </row>
-    <row r="351" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -31384,7 +31384,7 @@
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
     </row>
-    <row r="352" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -31413,7 +31413,7 @@
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
     </row>
-    <row r="353" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -31442,7 +31442,7 @@
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
     </row>
-    <row r="354" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -31471,7 +31471,7 @@
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
     </row>
-    <row r="355" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -31500,7 +31500,7 @@
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
     </row>
-    <row r="356" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -31529,7 +31529,7 @@
       <c r="J356" s="1"/>
       <c r="K356" s="1"/>
     </row>
-    <row r="357" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -31558,7 +31558,7 @@
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
     </row>
-    <row r="358" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -31587,7 +31587,7 @@
       <c r="J358" s="1"/>
       <c r="K358" s="1"/>
     </row>
-    <row r="359" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -31616,7 +31616,7 @@
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
     </row>
-    <row r="360" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -31645,7 +31645,7 @@
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
     </row>
-    <row r="361" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -31674,7 +31674,7 @@
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
     </row>
-    <row r="362" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -31703,7 +31703,7 @@
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
     </row>
-    <row r="363" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -31732,7 +31732,7 @@
       <c r="J363" s="1"/>
       <c r="K363" s="1"/>
     </row>
-    <row r="364" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -31761,7 +31761,7 @@
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
     </row>
-    <row r="365" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -31790,7 +31790,7 @@
       <c r="J365" s="1"/>
       <c r="K365" s="1"/>
     </row>
-    <row r="366" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -31819,7 +31819,7 @@
       <c r="J366" s="1"/>
       <c r="K366" s="1"/>
     </row>
-    <row r="367" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -31848,7 +31848,7 @@
       <c r="J367" s="1"/>
       <c r="K367" s="1"/>
     </row>
-    <row r="368" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -31877,7 +31877,7 @@
       <c r="J368" s="1"/>
       <c r="K368" s="1"/>
     </row>
-    <row r="369" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -31906,7 +31906,7 @@
       <c r="J369" s="1"/>
       <c r="K369" s="1"/>
     </row>
-    <row r="370" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -31935,7 +31935,7 @@
       <c r="J370" s="1"/>
       <c r="K370" s="1"/>
     </row>
-    <row r="371" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -31964,7 +31964,7 @@
       <c r="J371" s="1"/>
       <c r="K371" s="1"/>
     </row>
-    <row r="372" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -31993,7 +31993,7 @@
       <c r="J372" s="1"/>
       <c r="K372" s="1"/>
     </row>
-    <row r="373" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -32022,7 +32022,7 @@
       <c r="J373" s="1"/>
       <c r="K373" s="1"/>
     </row>
-    <row r="374" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -32051,7 +32051,7 @@
       <c r="J374" s="1"/>
       <c r="K374" s="1"/>
     </row>
-    <row r="375" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -32080,7 +32080,7 @@
       <c r="J375" s="1"/>
       <c r="K375" s="1"/>
     </row>
-    <row r="376" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -32109,7 +32109,7 @@
       <c r="J376" s="1"/>
       <c r="K376" s="1"/>
     </row>
-    <row r="377" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -32138,7 +32138,7 @@
       <c r="J377" s="1"/>
       <c r="K377" s="1"/>
     </row>
-    <row r="378" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -32167,7 +32167,7 @@
       <c r="J378" s="1"/>
       <c r="K378" s="1"/>
     </row>
-    <row r="379" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -32196,7 +32196,7 @@
       <c r="J379" s="1"/>
       <c r="K379" s="1"/>
     </row>
-    <row r="380" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -32225,7 +32225,7 @@
       <c r="J380" s="1"/>
       <c r="K380" s="1"/>
     </row>
-    <row r="381" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -32254,7 +32254,7 @@
       <c r="J381" s="1"/>
       <c r="K381" s="1"/>
     </row>
-    <row r="382" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -32283,7 +32283,7 @@
       <c r="J382" s="1"/>
       <c r="K382" s="1"/>
     </row>
-    <row r="383" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -32312,7 +32312,7 @@
       <c r="J383" s="1"/>
       <c r="K383" s="1"/>
     </row>
-    <row r="384" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -32341,7 +32341,7 @@
       <c r="J384" s="1"/>
       <c r="K384" s="1"/>
     </row>
-    <row r="385" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -32370,7 +32370,7 @@
       <c r="J385" s="1"/>
       <c r="K385" s="1"/>
     </row>
-    <row r="386" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -32399,7 +32399,7 @@
       <c r="J386" s="1"/>
       <c r="K386" s="1"/>
     </row>
-    <row r="387" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -32428,7 +32428,7 @@
       <c r="J387" s="1"/>
       <c r="K387" s="1"/>
     </row>
-    <row r="388" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -32457,7 +32457,7 @@
       <c r="J388" s="1"/>
       <c r="K388" s="1"/>
     </row>
-    <row r="389" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -32486,7 +32486,7 @@
       <c r="J389" s="1"/>
       <c r="K389" s="1"/>
     </row>
-    <row r="390" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -32515,7 +32515,7 @@
       <c r="J390" s="1"/>
       <c r="K390" s="1"/>
     </row>
-    <row r="391" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -32544,7 +32544,7 @@
       <c r="J391" s="1"/>
       <c r="K391" s="1"/>
     </row>
-    <row r="392" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -32573,7 +32573,7 @@
       <c r="J392" s="1"/>
       <c r="K392" s="1"/>
     </row>
-    <row r="393" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -32602,7 +32602,7 @@
       <c r="J393" s="1"/>
       <c r="K393" s="1"/>
     </row>
-    <row r="394" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -32631,7 +32631,7 @@
       <c r="J394" s="1"/>
       <c r="K394" s="1"/>
     </row>
-    <row r="395" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -32660,7 +32660,7 @@
       <c r="J395" s="1"/>
       <c r="K395" s="1"/>
     </row>
-    <row r="396" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -32689,7 +32689,7 @@
       <c r="J396" s="1"/>
       <c r="K396" s="1"/>
     </row>
-    <row r="397" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -32718,7 +32718,7 @@
       <c r="J397" s="1"/>
       <c r="K397" s="1"/>
     </row>
-    <row r="398" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -32747,7 +32747,7 @@
       <c r="J398" s="1"/>
       <c r="K398" s="1"/>
     </row>
-    <row r="399" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -32776,7 +32776,7 @@
       <c r="J399" s="1"/>
       <c r="K399" s="1"/>
     </row>
-    <row r="400" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -32805,7 +32805,7 @@
       <c r="J400" s="1"/>
       <c r="K400" s="1"/>
     </row>
-    <row r="401" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -32834,7 +32834,7 @@
       <c r="J401" s="1"/>
       <c r="K401" s="1"/>
     </row>
-    <row r="402" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -32863,7 +32863,7 @@
       <c r="J402" s="1"/>
       <c r="K402" s="1"/>
     </row>
-    <row r="403" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -32892,7 +32892,7 @@
       <c r="J403" s="1"/>
       <c r="K403" s="1"/>
     </row>
-    <row r="404" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -32921,7 +32921,7 @@
       <c r="J404" s="1"/>
       <c r="K404" s="1"/>
     </row>
-    <row r="405" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -32950,7 +32950,7 @@
       <c r="J405" s="1"/>
       <c r="K405" s="1"/>
     </row>
-    <row r="406" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -32979,7 +32979,7 @@
       <c r="J406" s="1"/>
       <c r="K406" s="1"/>
     </row>
-    <row r="407" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -33008,7 +33008,7 @@
       <c r="J407" s="1"/>
       <c r="K407" s="1"/>
     </row>
-    <row r="408" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -33037,7 +33037,7 @@
       <c r="J408" s="1"/>
       <c r="K408" s="1"/>
     </row>
-    <row r="409" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -33066,7 +33066,7 @@
       <c r="J409" s="1"/>
       <c r="K409" s="1"/>
     </row>
-    <row r="410" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -33095,7 +33095,7 @@
       <c r="J410" s="1"/>
       <c r="K410" s="1"/>
     </row>
-    <row r="411" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -33124,7 +33124,7 @@
       <c r="J411" s="1"/>
       <c r="K411" s="1"/>
     </row>
-    <row r="412" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -33153,7 +33153,7 @@
       <c r="J412" s="1"/>
       <c r="K412" s="1"/>
     </row>
-    <row r="413" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -33182,7 +33182,7 @@
       <c r="J413" s="1"/>
       <c r="K413" s="1"/>
     </row>
-    <row r="414" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -33211,7 +33211,7 @@
       <c r="J414" s="1"/>
       <c r="K414" s="1"/>
     </row>
-    <row r="415" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -33240,7 +33240,7 @@
       <c r="J415" s="1"/>
       <c r="K415" s="1"/>
     </row>
-    <row r="416" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -33269,7 +33269,7 @@
       <c r="J416" s="1"/>
       <c r="K416" s="1"/>
     </row>
-    <row r="417" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -33298,7 +33298,7 @@
       <c r="J417" s="1"/>
       <c r="K417" s="1"/>
     </row>
-    <row r="418" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -33327,7 +33327,7 @@
       <c r="J418" s="1"/>
       <c r="K418" s="1"/>
     </row>
-    <row r="419" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -33356,7 +33356,7 @@
       <c r="J419" s="1"/>
       <c r="K419" s="1"/>
     </row>
-    <row r="420" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -33385,7 +33385,7 @@
       <c r="J420" s="1"/>
       <c r="K420" s="1"/>
     </row>
-    <row r="421" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -33414,7 +33414,7 @@
       <c r="J421" s="1"/>
       <c r="K421" s="1"/>
     </row>
-    <row r="422" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -33443,7 +33443,7 @@
       <c r="J422" s="1"/>
       <c r="K422" s="1"/>
     </row>
-    <row r="423" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -33472,7 +33472,7 @@
       <c r="J423" s="1"/>
       <c r="K423" s="1"/>
     </row>
-    <row r="424" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -33501,7 +33501,7 @@
       <c r="J424" s="1"/>
       <c r="K424" s="1"/>
     </row>
-    <row r="425" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -33530,7 +33530,7 @@
       <c r="J425" s="1"/>
       <c r="K425" s="1"/>
     </row>
-    <row r="426" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -33559,7 +33559,7 @@
       <c r="J426" s="1"/>
       <c r="K426" s="1"/>
     </row>
-    <row r="427" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -33588,7 +33588,7 @@
       <c r="J427" s="1"/>
       <c r="K427" s="1"/>
     </row>
-    <row r="428" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -33617,7 +33617,7 @@
       <c r="J428" s="1"/>
       <c r="K428" s="1"/>
     </row>
-    <row r="429" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -33646,7 +33646,7 @@
       <c r="J429" s="1"/>
       <c r="K429" s="1"/>
     </row>
-    <row r="430" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -33675,7 +33675,7 @@
       <c r="J430" s="1"/>
       <c r="K430" s="1"/>
     </row>
-    <row r="431" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -33704,7 +33704,7 @@
       <c r="J431" s="1"/>
       <c r="K431" s="1"/>
     </row>
-    <row r="432" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -33733,7 +33733,7 @@
       <c r="J432" s="1"/>
       <c r="K432" s="1"/>
     </row>
-    <row r="433" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -33762,7 +33762,7 @@
       <c r="J433" s="1"/>
       <c r="K433" s="1"/>
     </row>
-    <row r="434" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -33791,7 +33791,7 @@
       <c r="J434" s="1"/>
       <c r="K434" s="1"/>
     </row>
-    <row r="435" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -33820,7 +33820,7 @@
       <c r="J435" s="1"/>
       <c r="K435" s="1"/>
     </row>
-    <row r="436" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -33849,7 +33849,7 @@
       <c r="J436" s="1"/>
       <c r="K436" s="1"/>
     </row>
-    <row r="437" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -33878,7 +33878,7 @@
       <c r="J437" s="1"/>
       <c r="K437" s="1"/>
     </row>
-    <row r="438" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -33907,7 +33907,7 @@
       <c r="J438" s="1"/>
       <c r="K438" s="1"/>
     </row>
-    <row r="439" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -33936,7 +33936,7 @@
       <c r="J439" s="1"/>
       <c r="K439" s="1"/>
     </row>
-    <row r="440" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -33965,7 +33965,7 @@
       <c r="J440" s="1"/>
       <c r="K440" s="1"/>
     </row>
-    <row r="441" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -33994,7 +33994,7 @@
       <c r="J441" s="1"/>
       <c r="K441" s="1"/>
     </row>
-    <row r="442" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -34023,7 +34023,7 @@
       <c r="J442" s="1"/>
       <c r="K442" s="1"/>
     </row>
-    <row r="443" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -34052,7 +34052,7 @@
       <c r="J443" s="1"/>
       <c r="K443" s="1"/>
     </row>
-    <row r="444" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -34081,7 +34081,7 @@
       <c r="J444" s="1"/>
       <c r="K444" s="1"/>
     </row>
-    <row r="445" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -34110,7 +34110,7 @@
       <c r="J445" s="1"/>
       <c r="K445" s="1"/>
     </row>
-    <row r="446" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -34139,7 +34139,7 @@
       <c r="J446" s="1"/>
       <c r="K446" s="1"/>
     </row>
-    <row r="447" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -34168,7 +34168,7 @@
       <c r="J447" s="1"/>
       <c r="K447" s="1"/>
     </row>
-    <row r="448" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -34197,7 +34197,7 @@
       <c r="J448" s="1"/>
       <c r="K448" s="1"/>
     </row>
-    <row r="449" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -34226,7 +34226,7 @@
       <c r="J449" s="1"/>
       <c r="K449" s="1"/>
     </row>
-    <row r="450" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -34255,7 +34255,7 @@
       <c r="J450" s="1"/>
       <c r="K450" s="1"/>
     </row>
-    <row r="451" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -34284,7 +34284,7 @@
       <c r="J451" s="1"/>
       <c r="K451" s="1"/>
     </row>
-    <row r="452" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -34313,7 +34313,7 @@
       <c r="J452" s="1"/>
       <c r="K452" s="1"/>
     </row>
-    <row r="453" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -34342,7 +34342,7 @@
       <c r="J453" s="1"/>
       <c r="K453" s="1"/>
     </row>
-    <row r="454" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -34371,7 +34371,7 @@
       <c r="J454" s="1"/>
       <c r="K454" s="1"/>
     </row>
-    <row r="455" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -34400,7 +34400,7 @@
       <c r="J455" s="1"/>
       <c r="K455" s="1"/>
     </row>
-    <row r="456" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -34429,7 +34429,7 @@
       <c r="J456" s="1"/>
       <c r="K456" s="1"/>
     </row>
-    <row r="457" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -34458,7 +34458,7 @@
       <c r="J457" s="1"/>
       <c r="K457" s="1"/>
     </row>
-    <row r="458" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -34487,7 +34487,7 @@
       <c r="J458" s="1"/>
       <c r="K458" s="1"/>
     </row>
-    <row r="459" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -34516,7 +34516,7 @@
       <c r="J459" s="1"/>
       <c r="K459" s="1"/>
     </row>
-    <row r="460" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -34545,7 +34545,7 @@
       <c r="J460" s="1"/>
       <c r="K460" s="1"/>
     </row>
-    <row r="461" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -34574,7 +34574,7 @@
       <c r="J461" s="1"/>
       <c r="K461" s="1"/>
     </row>
-    <row r="462" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -34603,7 +34603,7 @@
       <c r="J462" s="1"/>
       <c r="K462" s="1"/>
     </row>
-    <row r="463" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -34632,7 +34632,7 @@
       <c r="J463" s="1"/>
       <c r="K463" s="1"/>
     </row>
-    <row r="464" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -34661,7 +34661,7 @@
       <c r="J464" s="1"/>
       <c r="K464" s="1"/>
     </row>
-    <row r="465" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -34690,7 +34690,7 @@
       <c r="J465" s="1"/>
       <c r="K465" s="1"/>
     </row>
-    <row r="466" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -34719,7 +34719,7 @@
       <c r="J466" s="1"/>
       <c r="K466" s="1"/>
     </row>
-    <row r="467" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -34748,7 +34748,7 @@
       <c r="J467" s="1"/>
       <c r="K467" s="1"/>
     </row>
-    <row r="468" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -34777,7 +34777,7 @@
       <c r="J468" s="1"/>
       <c r="K468" s="1"/>
     </row>
-    <row r="469" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -34806,7 +34806,7 @@
       <c r="J469" s="1"/>
       <c r="K469" s="1"/>
     </row>
-    <row r="470" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -34835,7 +34835,7 @@
       <c r="J470" s="1"/>
       <c r="K470" s="1"/>
     </row>
-    <row r="471" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -34864,7 +34864,7 @@
       <c r="J471" s="1"/>
       <c r="K471" s="1"/>
     </row>
-    <row r="472" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -34893,7 +34893,7 @@
       <c r="J472" s="1"/>
       <c r="K472" s="1"/>
     </row>
-    <row r="473" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -34922,7 +34922,7 @@
       <c r="J473" s="1"/>
       <c r="K473" s="1"/>
     </row>
-    <row r="474" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -34951,7 +34951,7 @@
       <c r="J474" s="1"/>
       <c r="K474" s="1"/>
     </row>
-    <row r="475" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -34980,7 +34980,7 @@
       <c r="J475" s="1"/>
       <c r="K475" s="1"/>
     </row>
-    <row r="476" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -35009,7 +35009,7 @@
       <c r="J476" s="1"/>
       <c r="K476" s="1"/>
     </row>
-    <row r="477" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -35038,7 +35038,7 @@
       <c r="J477" s="1"/>
       <c r="K477" s="1"/>
     </row>
-    <row r="478" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -35067,7 +35067,7 @@
       <c r="J478" s="1"/>
       <c r="K478" s="1"/>
     </row>
-    <row r="479" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -35096,7 +35096,7 @@
       <c r="J479" s="1"/>
       <c r="K479" s="1"/>
     </row>
-    <row r="480" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -35125,7 +35125,7 @@
       <c r="J480" s="1"/>
       <c r="K480" s="1"/>
     </row>
-    <row r="481" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -35154,7 +35154,7 @@
       <c r="J481" s="1"/>
       <c r="K481" s="1"/>
     </row>
-    <row r="482" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -35183,7 +35183,7 @@
       <c r="J482" s="1"/>
       <c r="K482" s="1"/>
     </row>
-    <row r="483" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -35212,7 +35212,7 @@
       <c r="J483" s="1"/>
       <c r="K483" s="1"/>
     </row>
-    <row r="484" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -35241,7 +35241,7 @@
       <c r="J484" s="1"/>
       <c r="K484" s="1"/>
     </row>
-    <row r="485" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -35270,7 +35270,7 @@
       <c r="J485" s="1"/>
       <c r="K485" s="1"/>
     </row>
-    <row r="486" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -35299,7 +35299,7 @@
       <c r="J486" s="1"/>
       <c r="K486" s="1"/>
     </row>
-    <row r="487" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -35328,7 +35328,7 @@
       <c r="J487" s="1"/>
       <c r="K487" s="1"/>
     </row>
-    <row r="488" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -35357,7 +35357,7 @@
       <c r="J488" s="1"/>
       <c r="K488" s="1"/>
     </row>
-    <row r="489" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -35386,7 +35386,7 @@
       <c r="J489" s="1"/>
       <c r="K489" s="1"/>
     </row>
-    <row r="490" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -35415,7 +35415,7 @@
       <c r="J490" s="1"/>
       <c r="K490" s="1"/>
     </row>
-    <row r="491" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -35444,7 +35444,7 @@
       <c r="J491" s="1"/>
       <c r="K491" s="1"/>
     </row>
-    <row r="492" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -35473,7 +35473,7 @@
       <c r="J492" s="1"/>
       <c r="K492" s="1"/>
     </row>
-    <row r="493" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -35502,7 +35502,7 @@
       <c r="J493" s="1"/>
       <c r="K493" s="1"/>
     </row>
-    <row r="494" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -35531,7 +35531,7 @@
       <c r="J494" s="1"/>
       <c r="K494" s="1"/>
     </row>
-    <row r="495" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -35560,7 +35560,7 @@
       <c r="J495" s="1"/>
       <c r="K495" s="1"/>
     </row>
-    <row r="496" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -35589,7 +35589,7 @@
       <c r="J496" s="1"/>
       <c r="K496" s="1"/>
     </row>
-    <row r="497" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -35618,7 +35618,7 @@
       <c r="J497" s="1"/>
       <c r="K497" s="1"/>
     </row>
-    <row r="498" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -35647,7 +35647,7 @@
       <c r="J498" s="1"/>
       <c r="K498" s="1"/>
     </row>
-    <row r="499" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -35676,7 +35676,7 @@
       <c r="J499" s="1"/>
       <c r="K499" s="1"/>
     </row>
-    <row r="500" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -35705,7 +35705,7 @@
       <c r="J500" s="1"/>
       <c r="K500" s="1"/>
     </row>
-    <row r="501" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -35734,7 +35734,7 @@
       <c r="J501" s="1"/>
       <c r="K501" s="1"/>
     </row>
-    <row r="502" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -35763,7 +35763,7 @@
       <c r="J502" s="1"/>
       <c r="K502" s="1"/>
     </row>
-    <row r="503" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -35792,7 +35792,7 @@
       <c r="J503" s="1"/>
       <c r="K503" s="1"/>
     </row>
-    <row r="504" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -35821,7 +35821,7 @@
       <c r="J504" s="1"/>
       <c r="K504" s="1"/>
     </row>
-    <row r="505" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -35850,7 +35850,7 @@
       <c r="J505" s="1"/>
       <c r="K505" s="1"/>
     </row>
-    <row r="506" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -35879,7 +35879,7 @@
       <c r="J506" s="1"/>
       <c r="K506" s="1"/>
     </row>
-    <row r="507" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -35908,7 +35908,7 @@
       <c r="J507" s="1"/>
       <c r="K507" s="1"/>
     </row>
-    <row r="508" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -35937,7 +35937,7 @@
       <c r="J508" s="1"/>
       <c r="K508" s="1"/>
     </row>
-    <row r="509" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -35966,7 +35966,7 @@
       <c r="J509" s="1"/>
       <c r="K509" s="1"/>
     </row>
-    <row r="510" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -35995,7 +35995,7 @@
       <c r="J510" s="1"/>
       <c r="K510" s="1"/>
     </row>
-    <row r="511" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -36024,7 +36024,7 @@
       <c r="J511" s="1"/>
       <c r="K511" s="1"/>
     </row>
-    <row r="512" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -36053,7 +36053,7 @@
       <c r="J512" s="1"/>
       <c r="K512" s="1"/>
     </row>
-    <row r="513" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -36082,7 +36082,7 @@
       <c r="J513" s="1"/>
       <c r="K513" s="1"/>
     </row>
-    <row r="514" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -36111,7 +36111,7 @@
       <c r="J514" s="1"/>
       <c r="K514" s="1"/>
     </row>
-    <row r="515" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -36140,7 +36140,7 @@
       <c r="J515" s="1"/>
       <c r="K515" s="1"/>
     </row>
-    <row r="516" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -36169,7 +36169,7 @@
       <c r="J516" s="1"/>
       <c r="K516" s="1"/>
     </row>
-    <row r="517" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -36198,7 +36198,7 @@
       <c r="J517" s="1"/>
       <c r="K517" s="1"/>
     </row>
-    <row r="518" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -36227,7 +36227,7 @@
       <c r="J518" s="1"/>
       <c r="K518" s="1"/>
     </row>
-    <row r="519" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -36256,7 +36256,7 @@
       <c r="J519" s="1"/>
       <c r="K519" s="1"/>
     </row>
-    <row r="520" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -36285,7 +36285,7 @@
       <c r="J520" s="1"/>
       <c r="K520" s="1"/>
     </row>
-    <row r="521" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -36314,7 +36314,7 @@
       <c r="J521" s="1"/>
       <c r="K521" s="1"/>
     </row>
-    <row r="522" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -36343,7 +36343,7 @@
       <c r="J522" s="1"/>
       <c r="K522" s="1"/>
     </row>
-    <row r="523" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -36372,7 +36372,7 @@
       <c r="J523" s="1"/>
       <c r="K523" s="1"/>
     </row>
-    <row r="524" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -36401,7 +36401,7 @@
       <c r="J524" s="1"/>
       <c r="K524" s="1"/>
     </row>
-    <row r="525" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -36430,7 +36430,7 @@
       <c r="J525" s="1"/>
       <c r="K525" s="1"/>
     </row>
-    <row r="526" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -36459,7 +36459,7 @@
       <c r="J526" s="1"/>
       <c r="K526" s="1"/>
     </row>
-    <row r="527" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -36488,7 +36488,7 @@
       <c r="J527" s="1"/>
       <c r="K527" s="1"/>
     </row>
-    <row r="528" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -36517,7 +36517,7 @@
       <c r="J528" s="1"/>
       <c r="K528" s="1"/>
     </row>
-    <row r="529" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -36546,7 +36546,7 @@
       <c r="J529" s="1"/>
       <c r="K529" s="1"/>
     </row>
-    <row r="530" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -36575,7 +36575,7 @@
       <c r="J530" s="1"/>
       <c r="K530" s="1"/>
     </row>
-    <row r="531" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -36604,7 +36604,7 @@
       <c r="J531" s="1"/>
       <c r="K531" s="1"/>
     </row>
-    <row r="532" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -36633,7 +36633,7 @@
       <c r="J532" s="1"/>
       <c r="K532" s="1"/>
     </row>
-    <row r="533" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -36662,7 +36662,7 @@
       <c r="J533" s="1"/>
       <c r="K533" s="1"/>
     </row>
-    <row r="534" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -36691,7 +36691,7 @@
       <c r="J534" s="1"/>
       <c r="K534" s="1"/>
     </row>
-    <row r="535" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -36720,7 +36720,7 @@
       <c r="J535" s="1"/>
       <c r="K535" s="1"/>
     </row>
-    <row r="536" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -36749,7 +36749,7 @@
       <c r="J536" s="1"/>
       <c r="K536" s="1"/>
     </row>
-    <row r="537" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -36778,7 +36778,7 @@
       <c r="J537" s="1"/>
       <c r="K537" s="1"/>
     </row>
-    <row r="538" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -36807,7 +36807,7 @@
       <c r="J538" s="1"/>
       <c r="K538" s="1"/>
     </row>
-    <row r="539" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -36836,7 +36836,7 @@
       <c r="J539" s="1"/>
       <c r="K539" s="1"/>
     </row>
-    <row r="540" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -36865,7 +36865,7 @@
       <c r="J540" s="1"/>
       <c r="K540" s="1"/>
     </row>
-    <row r="541" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -36894,7 +36894,7 @@
       <c r="J541" s="1"/>
       <c r="K541" s="1"/>
     </row>
-    <row r="542" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -36923,7 +36923,7 @@
       <c r="J542" s="1"/>
       <c r="K542" s="1"/>
     </row>
-    <row r="543" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -36952,7 +36952,7 @@
       <c r="J543" s="1"/>
       <c r="K543" s="1"/>
     </row>
-    <row r="544" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -36981,7 +36981,7 @@
       <c r="J544" s="1"/>
       <c r="K544" s="1"/>
     </row>
-    <row r="545" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -37010,7 +37010,7 @@
       <c r="J545" s="1"/>
       <c r="K545" s="1"/>
     </row>
-    <row r="546" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -37039,7 +37039,7 @@
       <c r="J546" s="1"/>
       <c r="K546" s="1"/>
     </row>
-    <row r="547" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -37068,7 +37068,7 @@
       <c r="J547" s="1"/>
       <c r="K547" s="1"/>
     </row>
-    <row r="548" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -37097,7 +37097,7 @@
       <c r="J548" s="1"/>
       <c r="K548" s="1"/>
     </row>
-    <row r="549" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -37126,7 +37126,7 @@
       <c r="J549" s="1"/>
       <c r="K549" s="1"/>
     </row>
-    <row r="550" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -37155,7 +37155,7 @@
       <c r="J550" s="1"/>
       <c r="K550" s="1"/>
     </row>
-    <row r="551" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -37184,7 +37184,7 @@
       <c r="J551" s="1"/>
       <c r="K551" s="1"/>
     </row>
-    <row r="552" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -37213,7 +37213,7 @@
       <c r="J552" s="1"/>
       <c r="K552" s="1"/>
     </row>
-    <row r="553" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -37242,7 +37242,7 @@
       <c r="J553" s="1"/>
       <c r="K553" s="1"/>
     </row>
-    <row r="554" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -37271,7 +37271,7 @@
       <c r="J554" s="1"/>
       <c r="K554" s="1"/>
     </row>
-    <row r="555" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -37300,7 +37300,7 @@
       <c r="J555" s="1"/>
       <c r="K555" s="1"/>
     </row>
-    <row r="556" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -37329,7 +37329,7 @@
       <c r="J556" s="1"/>
       <c r="K556" s="1"/>
     </row>
-    <row r="557" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -37358,7 +37358,7 @@
       <c r="J557" s="1"/>
       <c r="K557" s="1"/>
     </row>
-    <row r="558" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -37387,7 +37387,7 @@
       <c r="J558" s="1"/>
       <c r="K558" s="1"/>
     </row>
-    <row r="559" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -37416,7 +37416,7 @@
       <c r="J559" s="1"/>
       <c r="K559" s="1"/>
     </row>
-    <row r="560" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -37445,7 +37445,7 @@
       <c r="J560" s="1"/>
       <c r="K560" s="1"/>
     </row>
-    <row r="561" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -37474,7 +37474,7 @@
       <c r="J561" s="1"/>
       <c r="K561" s="1"/>
     </row>
-    <row r="562" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -37503,7 +37503,7 @@
       <c r="J562" s="1"/>
       <c r="K562" s="1"/>
     </row>
-    <row r="563" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -37532,7 +37532,7 @@
       <c r="J563" s="1"/>
       <c r="K563" s="1"/>
     </row>
-    <row r="564" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -37561,7 +37561,7 @@
       <c r="J564" s="1"/>
       <c r="K564" s="1"/>
     </row>
-    <row r="565" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -37590,7 +37590,7 @@
       <c r="J565" s="1"/>
       <c r="K565" s="1"/>
     </row>
-    <row r="566" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -37619,7 +37619,7 @@
       <c r="J566" s="1"/>
       <c r="K566" s="1"/>
     </row>
-    <row r="567" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -37648,7 +37648,7 @@
       <c r="J567" s="1"/>
       <c r="K567" s="1"/>
     </row>
-    <row r="568" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -37677,7 +37677,7 @@
       <c r="J568" s="1"/>
       <c r="K568" s="1"/>
     </row>
-    <row r="569" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -37706,7 +37706,7 @@
       <c r="J569" s="1"/>
       <c r="K569" s="1"/>
     </row>
-    <row r="570" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -37735,7 +37735,7 @@
       <c r="J570" s="1"/>
       <c r="K570" s="1"/>
     </row>
-    <row r="571" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -37764,7 +37764,7 @@
       <c r="J571" s="1"/>
       <c r="K571" s="1"/>
     </row>
-    <row r="572" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -37793,7 +37793,7 @@
       <c r="J572" s="1"/>
       <c r="K572" s="1"/>
     </row>
-    <row r="573" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -37822,7 +37822,7 @@
       <c r="J573" s="1"/>
       <c r="K573" s="1"/>
     </row>
-    <row r="574" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -37851,7 +37851,7 @@
       <c r="J574" s="1"/>
       <c r="K574" s="1"/>
     </row>
-    <row r="575" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -37880,7 +37880,7 @@
       <c r="J575" s="1"/>
       <c r="K575" s="1"/>
     </row>
-    <row r="576" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -37909,7 +37909,7 @@
       <c r="J576" s="1"/>
       <c r="K576" s="1"/>
     </row>
-    <row r="577" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -37938,7 +37938,7 @@
       <c r="J577" s="1"/>
       <c r="K577" s="1"/>
     </row>
-    <row r="578" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -37967,7 +37967,7 @@
       <c r="J578" s="1"/>
       <c r="K578" s="1"/>
     </row>
-    <row r="579" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -37996,7 +37996,7 @@
       <c r="J579" s="1"/>
       <c r="K579" s="1"/>
     </row>
-    <row r="580" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -38025,7 +38025,7 @@
       <c r="J580" s="1"/>
       <c r="K580" s="1"/>
     </row>
-    <row r="581" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -38054,7 +38054,7 @@
       <c r="J581" s="1"/>
       <c r="K581" s="1"/>
     </row>
-    <row r="582" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -38083,7 +38083,7 @@
       <c r="J582" s="1"/>
       <c r="K582" s="1"/>
     </row>
-    <row r="583" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -38112,7 +38112,7 @@
       <c r="J583" s="1"/>
       <c r="K583" s="1"/>
     </row>
-    <row r="584" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -38141,7 +38141,7 @@
       <c r="J584" s="1"/>
       <c r="K584" s="1"/>
     </row>
-    <row r="585" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -38170,7 +38170,7 @@
       <c r="J585" s="1"/>
       <c r="K585" s="1"/>
     </row>
-    <row r="586" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -38199,7 +38199,7 @@
       <c r="J586" s="1"/>
       <c r="K586" s="1"/>
     </row>
-    <row r="587" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -38228,7 +38228,7 @@
       <c r="J587" s="1"/>
       <c r="K587" s="1"/>
     </row>
-    <row r="588" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -38257,7 +38257,7 @@
       <c r="J588" s="1"/>
       <c r="K588" s="1"/>
     </row>
-    <row r="589" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -38286,7 +38286,7 @@
       <c r="J589" s="1"/>
       <c r="K589" s="1"/>
     </row>
-    <row r="590" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -38315,7 +38315,7 @@
       <c r="J590" s="1"/>
       <c r="K590" s="1"/>
     </row>
-    <row r="591" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -38344,7 +38344,7 @@
       <c r="J591" s="1"/>
       <c r="K591" s="1"/>
     </row>
-    <row r="592" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -38373,7 +38373,7 @@
       <c r="J592" s="1"/>
       <c r="K592" s="1"/>
     </row>
-    <row r="593" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -38402,7 +38402,7 @@
       <c r="J593" s="1"/>
       <c r="K593" s="1"/>
     </row>
-    <row r="594" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -38431,7 +38431,7 @@
       <c r="J594" s="1"/>
       <c r="K594" s="1"/>
     </row>
-    <row r="595" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -38460,7 +38460,7 @@
       <c r="J595" s="1"/>
       <c r="K595" s="1"/>
     </row>
-    <row r="596" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -38489,7 +38489,7 @@
       <c r="J596" s="1"/>
       <c r="K596" s="1"/>
     </row>
-    <row r="597" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -38518,7 +38518,7 @@
       <c r="J597" s="1"/>
       <c r="K597" s="1"/>
     </row>
-    <row r="598" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -38547,7 +38547,7 @@
       <c r="J598" s="1"/>
       <c r="K598" s="1"/>
     </row>
-    <row r="599" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -38576,7 +38576,7 @@
       <c r="J599" s="1"/>
       <c r="K599" s="1"/>
     </row>
-    <row r="600" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -38605,7 +38605,7 @@
       <c r="J600" s="1"/>
       <c r="K600" s="1"/>
     </row>
-    <row r="601" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -38634,7 +38634,7 @@
       <c r="J601" s="1"/>
       <c r="K601" s="1"/>
     </row>
-    <row r="602" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -38663,7 +38663,7 @@
       <c r="J602" s="1"/>
       <c r="K602" s="1"/>
     </row>
-    <row r="603" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -38692,7 +38692,7 @@
       <c r="J603" s="1"/>
       <c r="K603" s="1"/>
     </row>
-    <row r="604" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -38721,7 +38721,7 @@
       <c r="J604" s="1"/>
       <c r="K604" s="1"/>
     </row>
-    <row r="605" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -38750,7 +38750,7 @@
       <c r="J605" s="1"/>
       <c r="K605" s="1"/>
     </row>
-    <row r="606" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -38779,7 +38779,7 @@
       <c r="J606" s="1"/>
       <c r="K606" s="1"/>
     </row>
-    <row r="607" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -38808,7 +38808,7 @@
       <c r="J607" s="1"/>
       <c r="K607" s="1"/>
     </row>
-    <row r="608" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -38837,7 +38837,7 @@
       <c r="J608" s="1"/>
       <c r="K608" s="1"/>
     </row>
-    <row r="609" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -38866,7 +38866,7 @@
       <c r="J609" s="1"/>
       <c r="K609" s="1"/>
     </row>
-    <row r="610" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -38895,7 +38895,7 @@
       <c r="J610" s="1"/>
       <c r="K610" s="1"/>
     </row>
-    <row r="611" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -38924,7 +38924,7 @@
       <c r="J611" s="1"/>
       <c r="K611" s="1"/>
     </row>
-    <row r="612" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -38953,7 +38953,7 @@
       <c r="J612" s="1"/>
       <c r="K612" s="1"/>
     </row>
-    <row r="613" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -38982,7 +38982,7 @@
       <c r="J613" s="1"/>
       <c r="K613" s="1"/>
     </row>
-    <row r="614" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -39011,7 +39011,7 @@
       <c r="J614" s="1"/>
       <c r="K614" s="1"/>
     </row>
-    <row r="615" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -39040,7 +39040,7 @@
       <c r="J615" s="1"/>
       <c r="K615" s="1"/>
     </row>
-    <row r="616" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -39069,7 +39069,7 @@
       <c r="J616" s="1"/>
       <c r="K616" s="1"/>
     </row>
-    <row r="617" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -39098,7 +39098,7 @@
       <c r="J617" s="1"/>
       <c r="K617" s="1"/>
     </row>
-    <row r="618" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -39127,7 +39127,7 @@
       <c r="J618" s="1"/>
       <c r="K618" s="1"/>
     </row>
-    <row r="619" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -39156,7 +39156,7 @@
       <c r="J619" s="1"/>
       <c r="K619" s="1"/>
     </row>
-    <row r="620" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -39185,7 +39185,7 @@
       <c r="J620" s="1"/>
       <c r="K620" s="1"/>
     </row>
-    <row r="621" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -39214,7 +39214,7 @@
       <c r="J621" s="1"/>
       <c r="K621" s="1"/>
     </row>
-    <row r="622" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -39243,7 +39243,7 @@
       <c r="J622" s="1"/>
       <c r="K622" s="1"/>
     </row>
-    <row r="623" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -39272,7 +39272,7 @@
       <c r="J623" s="1"/>
       <c r="K623" s="1"/>
     </row>
-    <row r="624" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -39301,7 +39301,7 @@
       <c r="J624" s="1"/>
       <c r="K624" s="1"/>
     </row>
-    <row r="625" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -39330,7 +39330,7 @@
       <c r="J625" s="1"/>
       <c r="K625" s="1"/>
     </row>
-    <row r="626" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -39359,7 +39359,7 @@
       <c r="J626" s="1"/>
       <c r="K626" s="1"/>
     </row>
-    <row r="627" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -39388,7 +39388,7 @@
       <c r="J627" s="1"/>
       <c r="K627" s="1"/>
     </row>
-    <row r="628" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -39417,7 +39417,7 @@
       <c r="J628" s="1"/>
       <c r="K628" s="1"/>
     </row>
-    <row r="629" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -39446,7 +39446,7 @@
       <c r="J629" s="1"/>
       <c r="K629" s="1"/>
     </row>
-    <row r="630" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -39475,7 +39475,7 @@
       <c r="J630" s="1"/>
       <c r="K630" s="1"/>
     </row>
-    <row r="631" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -39504,7 +39504,7 @@
       <c r="J631" s="1"/>
       <c r="K631" s="1"/>
     </row>
-    <row r="632" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -39533,7 +39533,7 @@
       <c r="J632" s="1"/>
       <c r="K632" s="1"/>
     </row>
-    <row r="633" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -39562,7 +39562,7 @@
       <c r="J633" s="1"/>
       <c r="K633" s="1"/>
     </row>
-    <row r="634" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -39591,7 +39591,7 @@
       <c r="J634" s="1"/>
       <c r="K634" s="1"/>
     </row>
-    <row r="635" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -39620,7 +39620,7 @@
       <c r="J635" s="1"/>
       <c r="K635" s="1"/>
     </row>
-    <row r="636" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -39649,7 +39649,7 @@
       <c r="J636" s="1"/>
       <c r="K636" s="1"/>
     </row>
-    <row r="637" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -39678,7 +39678,7 @@
       <c r="J637" s="1"/>
       <c r="K637" s="1"/>
     </row>
-    <row r="638" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -39707,7 +39707,7 @@
       <c r="J638" s="1"/>
       <c r="K638" s="1"/>
     </row>
-    <row r="639" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -39736,7 +39736,7 @@
       <c r="J639" s="1"/>
       <c r="K639" s="1"/>
     </row>
-    <row r="640" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -39765,7 +39765,7 @@
       <c r="J640" s="1"/>
       <c r="K640" s="1"/>
     </row>
-    <row r="641" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -39794,7 +39794,7 @@
       <c r="J641" s="1"/>
       <c r="K641" s="1"/>
     </row>
-    <row r="642" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -39823,7 +39823,7 @@
       <c r="J642" s="1"/>
       <c r="K642" s="1"/>
     </row>
-    <row r="643" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -39852,7 +39852,7 @@
       <c r="J643" s="1"/>
       <c r="K643" s="1"/>
     </row>
-    <row r="644" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -39881,7 +39881,7 @@
       <c r="J644" s="1"/>
       <c r="K644" s="1"/>
     </row>
-    <row r="645" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -39910,7 +39910,7 @@
       <c r="J645" s="1"/>
       <c r="K645" s="1"/>
     </row>
-    <row r="646" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -39939,7 +39939,7 @@
       <c r="J646" s="1"/>
       <c r="K646" s="1"/>
     </row>
-    <row r="647" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -39968,7 +39968,7 @@
       <c r="J647" s="1"/>
       <c r="K647" s="1"/>
     </row>
-    <row r="648" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -39997,7 +39997,7 @@
       <c r="J648" s="1"/>
       <c r="K648" s="1"/>
     </row>
-    <row r="649" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -40026,7 +40026,7 @@
       <c r="J649" s="1"/>
       <c r="K649" s="1"/>
     </row>
-    <row r="650" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -40055,7 +40055,7 @@
       <c r="J650" s="1"/>
       <c r="K650" s="1"/>
     </row>
-    <row r="651" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -40084,7 +40084,7 @@
       <c r="J651" s="1"/>
       <c r="K651" s="1"/>
     </row>
-    <row r="652" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -40113,7 +40113,7 @@
       <c r="J652" s="1"/>
       <c r="K652" s="1"/>
     </row>
-    <row r="653" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -40142,7 +40142,7 @@
       <c r="J653" s="1"/>
       <c r="K653" s="1"/>
     </row>
-    <row r="654" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -40171,7 +40171,7 @@
       <c r="J654" s="1"/>
       <c r="K654" s="1"/>
     </row>
-    <row r="655" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -40200,7 +40200,7 @@
       <c r="J655" s="1"/>
       <c r="K655" s="1"/>
     </row>
-    <row r="656" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -40229,7 +40229,7 @@
       <c r="J656" s="1"/>
       <c r="K656" s="1"/>
     </row>
-    <row r="657" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -40258,7 +40258,7 @@
       <c r="J657" s="1"/>
       <c r="K657" s="1"/>
     </row>
-    <row r="658" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -40287,7 +40287,7 @@
       <c r="J658" s="1"/>
       <c r="K658" s="1"/>
     </row>
-    <row r="659" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -40316,7 +40316,7 @@
       <c r="J659" s="1"/>
       <c r="K659" s="1"/>
     </row>
-    <row r="660" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -40345,7 +40345,7 @@
       <c r="J660" s="1"/>
       <c r="K660" s="1"/>
     </row>
-    <row r="661" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -40374,7 +40374,7 @@
       <c r="J661" s="1"/>
       <c r="K661" s="1"/>
     </row>
-    <row r="662" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -40403,7 +40403,7 @@
       <c r="J662" s="1"/>
       <c r="K662" s="1"/>
     </row>
-    <row r="663" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -40432,7 +40432,7 @@
       <c r="J663" s="1"/>
       <c r="K663" s="1"/>
     </row>
-    <row r="664" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -40461,7 +40461,7 @@
       <c r="J664" s="1"/>
       <c r="K664" s="1"/>
     </row>
-    <row r="665" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -40490,7 +40490,7 @@
       <c r="J665" s="1"/>
       <c r="K665" s="1"/>
     </row>
-    <row r="666" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -40519,7 +40519,7 @@
       <c r="J666" s="1"/>
       <c r="K666" s="1"/>
     </row>
-    <row r="667" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -40548,7 +40548,7 @@
       <c r="J667" s="1"/>
       <c r="K667" s="1"/>
     </row>
-    <row r="668" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -40577,7 +40577,7 @@
       <c r="J668" s="1"/>
       <c r="K668" s="1"/>
     </row>
-    <row r="669" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -40606,7 +40606,7 @@
       <c r="J669" s="1"/>
       <c r="K669" s="1"/>
     </row>
-    <row r="670" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -40635,7 +40635,7 @@
       <c r="J670" s="1"/>
       <c r="K670" s="1"/>
     </row>
-    <row r="671" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -40664,7 +40664,7 @@
       <c r="J671" s="1"/>
       <c r="K671" s="1"/>
     </row>
-    <row r="672" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -40693,7 +40693,7 @@
       <c r="J672" s="1"/>
       <c r="K672" s="1"/>
     </row>
-    <row r="673" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -40722,7 +40722,7 @@
       <c r="J673" s="1"/>
       <c r="K673" s="1"/>
     </row>
-    <row r="674" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -40751,7 +40751,7 @@
       <c r="J674" s="1"/>
       <c r="K674" s="1"/>
     </row>
-    <row r="675" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -40780,7 +40780,7 @@
       <c r="J675" s="1"/>
       <c r="K675" s="1"/>
     </row>
-    <row r="676" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -40809,7 +40809,7 @@
       <c r="J676" s="1"/>
       <c r="K676" s="1"/>
     </row>
-    <row r="677" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -40838,7 +40838,7 @@
       <c r="J677" s="1"/>
       <c r="K677" s="1"/>
     </row>
-    <row r="678" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -40867,7 +40867,7 @@
       <c r="J678" s="1"/>
       <c r="K678" s="1"/>
     </row>
-    <row r="679" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -40896,7 +40896,7 @@
       <c r="J679" s="1"/>
       <c r="K679" s="1"/>
     </row>
-    <row r="680" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -40925,7 +40925,7 @@
       <c r="J680" s="1"/>
       <c r="K680" s="1"/>
     </row>
-    <row r="681" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -40954,7 +40954,7 @@
       <c r="J681" s="1"/>
       <c r="K681" s="1"/>
     </row>
-    <row r="682" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -40983,7 +40983,7 @@
       <c r="J682" s="1"/>
       <c r="K682" s="1"/>
     </row>
-    <row r="683" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -41012,7 +41012,7 @@
       <c r="J683" s="1"/>
       <c r="K683" s="1"/>
     </row>
-    <row r="684" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -41041,7 +41041,7 @@
       <c r="J684" s="1"/>
       <c r="K684" s="1"/>
     </row>
-    <row r="685" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -41070,7 +41070,7 @@
       <c r="J685" s="1"/>
       <c r="K685" s="1"/>
     </row>
-    <row r="686" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -41099,7 +41099,7 @@
       <c r="J686" s="1"/>
       <c r="K686" s="1"/>
     </row>
-    <row r="687" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -41128,7 +41128,7 @@
       <c r="J687" s="1"/>
       <c r="K687" s="1"/>
     </row>
-    <row r="688" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -41157,7 +41157,7 @@
       <c r="J688" s="1"/>
       <c r="K688" s="1"/>
     </row>
-    <row r="689" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -41186,7 +41186,7 @@
       <c r="J689" s="1"/>
       <c r="K689" s="1"/>
     </row>
-    <row r="690" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -41215,7 +41215,7 @@
       <c r="J690" s="1"/>
       <c r="K690" s="1"/>
     </row>
-    <row r="691" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -41244,7 +41244,7 @@
       <c r="J691" s="1"/>
       <c r="K691" s="1"/>
     </row>
-    <row r="692" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -41273,7 +41273,7 @@
       <c r="J692" s="1"/>
       <c r="K692" s="1"/>
     </row>
-    <row r="693" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -41302,7 +41302,7 @@
       <c r="J693" s="1"/>
       <c r="K693" s="1"/>
     </row>
-    <row r="694" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -41331,7 +41331,7 @@
       <c r="J694" s="1"/>
       <c r="K694" s="1"/>
     </row>
-    <row r="695" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -41360,7 +41360,7 @@
       <c r="J695" s="1"/>
       <c r="K695" s="1"/>
     </row>
-    <row r="696" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -41389,7 +41389,7 @@
       <c r="J696" s="1"/>
       <c r="K696" s="1"/>
     </row>
-    <row r="697" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -41418,7 +41418,7 @@
       <c r="J697" s="1"/>
       <c r="K697" s="1"/>
     </row>
-    <row r="698" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -41447,7 +41447,7 @@
       <c r="J698" s="1"/>
       <c r="K698" s="1"/>
     </row>
-    <row r="699" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -41476,7 +41476,7 @@
       <c r="J699" s="1"/>
       <c r="K699" s="1"/>
     </row>
-    <row r="700" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -41505,7 +41505,7 @@
       <c r="J700" s="1"/>
       <c r="K700" s="1"/>
     </row>
-    <row r="701" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -41534,7 +41534,7 @@
       <c r="J701" s="1"/>
       <c r="K701" s="1"/>
     </row>
-    <row r="702" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -41563,7 +41563,7 @@
       <c r="J702" s="1"/>
       <c r="K702" s="1"/>
     </row>
-    <row r="703" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -41592,7 +41592,7 @@
       <c r="J703" s="1"/>
       <c r="K703" s="1"/>
     </row>
-    <row r="704" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -41621,7 +41621,7 @@
       <c r="J704" s="1"/>
       <c r="K704" s="1"/>
     </row>
-    <row r="705" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -41650,7 +41650,7 @@
       <c r="J705" s="1"/>
       <c r="K705" s="1"/>
     </row>
-    <row r="706" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -41679,7 +41679,7 @@
       <c r="J706" s="1"/>
       <c r="K706" s="1"/>
     </row>
-    <row r="707" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -41708,7 +41708,7 @@
       <c r="J707" s="1"/>
       <c r="K707" s="1"/>
     </row>
-    <row r="708" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -41737,7 +41737,7 @@
       <c r="J708" s="1"/>
       <c r="K708" s="1"/>
     </row>
-    <row r="709" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -41766,7 +41766,7 @@
       <c r="J709" s="1"/>
       <c r="K709" s="1"/>
     </row>
-    <row r="710" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -41795,7 +41795,7 @@
       <c r="J710" s="1"/>
       <c r="K710" s="1"/>
     </row>
-    <row r="711" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -41824,7 +41824,7 @@
       <c r="J711" s="1"/>
       <c r="K711" s="1"/>
     </row>
-    <row r="712" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -41853,7 +41853,7 @@
       <c r="J712" s="1"/>
       <c r="K712" s="1"/>
     </row>
-    <row r="713" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -41882,7 +41882,7 @@
       <c r="J713" s="1"/>
       <c r="K713" s="1"/>
     </row>
-    <row r="714" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -41911,7 +41911,7 @@
       <c r="J714" s="1"/>
       <c r="K714" s="1"/>
     </row>
-    <row r="715" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -41940,7 +41940,7 @@
       <c r="J715" s="1"/>
       <c r="K715" s="1"/>
     </row>
-    <row r="716" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -41969,7 +41969,7 @@
       <c r="J716" s="1"/>
       <c r="K716" s="1"/>
     </row>
-    <row r="717" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -41998,7 +41998,7 @@
       <c r="J717" s="1"/>
       <c r="K717" s="1"/>
     </row>
-    <row r="718" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -42027,7 +42027,7 @@
       <c r="J718" s="1"/>
       <c r="K718" s="1"/>
     </row>
-    <row r="719" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -42056,7 +42056,7 @@
       <c r="J719" s="1"/>
       <c r="K719" s="1"/>
     </row>
-    <row r="720" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -42085,7 +42085,7 @@
       <c r="J720" s="1"/>
       <c r="K720" s="1"/>
     </row>
-    <row r="721" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -42114,7 +42114,7 @@
       <c r="J721" s="1"/>
       <c r="K721" s="1"/>
     </row>
-    <row r="722" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -42143,7 +42143,7 @@
       <c r="J722" s="1"/>
       <c r="K722" s="1"/>
     </row>
-    <row r="723" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -42172,7 +42172,7 @@
       <c r="J723" s="1"/>
       <c r="K723" s="1"/>
     </row>
-    <row r="724" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -42201,7 +42201,7 @@
       <c r="J724" s="1"/>
       <c r="K724" s="1"/>
     </row>
-    <row r="725" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -42230,7 +42230,7 @@
       <c r="J725" s="1"/>
       <c r="K725" s="1"/>
     </row>
-    <row r="726" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -42259,7 +42259,7 @@
       <c r="J726" s="1"/>
       <c r="K726" s="1"/>
     </row>
-    <row r="727" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -42288,7 +42288,7 @@
       <c r="J727" s="1"/>
       <c r="K727" s="1"/>
     </row>
-    <row r="728" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -42317,7 +42317,7 @@
       <c r="J728" s="1"/>
       <c r="K728" s="1"/>
     </row>
-    <row r="729" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -42346,7 +42346,7 @@
       <c r="J729" s="1"/>
       <c r="K729" s="1"/>
     </row>
-    <row r="730" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -42375,7 +42375,7 @@
       <c r="J730" s="1"/>
       <c r="K730" s="1"/>
     </row>
-    <row r="731" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -42404,7 +42404,7 @@
       <c r="J731" s="1"/>
       <c r="K731" s="1"/>
     </row>
-    <row r="732" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -42433,7 +42433,7 @@
       <c r="J732" s="1"/>
       <c r="K732" s="1"/>
     </row>
-    <row r="733" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -42462,7 +42462,7 @@
       <c r="J733" s="1"/>
       <c r="K733" s="1"/>
     </row>
-    <row r="734" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -42491,7 +42491,7 @@
       <c r="J734" s="1"/>
       <c r="K734" s="1"/>
     </row>
-    <row r="735" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -42520,7 +42520,7 @@
       <c r="J735" s="1"/>
       <c r="K735" s="1"/>
     </row>
-    <row r="736" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -42549,7 +42549,7 @@
       <c r="J736" s="1"/>
       <c r="K736" s="1"/>
     </row>
-    <row r="737" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -42578,7 +42578,7 @@
       <c r="J737" s="1"/>
       <c r="K737" s="1"/>
     </row>
-    <row r="738" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -42607,7 +42607,7 @@
       <c r="J738" s="1"/>
       <c r="K738" s="1"/>
     </row>
-    <row r="739" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -42636,7 +42636,7 @@
       <c r="J739" s="1"/>
       <c r="K739" s="1"/>
     </row>
-    <row r="740" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -42665,7 +42665,7 @@
       <c r="J740" s="1"/>
       <c r="K740" s="1"/>
     </row>
-    <row r="741" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -42694,7 +42694,7 @@
       <c r="J741" s="1"/>
       <c r="K741" s="1"/>
     </row>
-    <row r="742" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -42723,7 +42723,7 @@
       <c r="J742" s="1"/>
       <c r="K742" s="1"/>
     </row>
-    <row r="743" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -42752,7 +42752,7 @@
       <c r="J743" s="1"/>
       <c r="K743" s="1"/>
     </row>
-    <row r="744" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -42781,7 +42781,7 @@
       <c r="J744" s="1"/>
       <c r="K744" s="1"/>
     </row>
-    <row r="745" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -42810,7 +42810,7 @@
       <c r="J745" s="1"/>
       <c r="K745" s="1"/>
     </row>
-    <row r="746" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -42839,7 +42839,7 @@
       <c r="J746" s="1"/>
       <c r="K746" s="1"/>
     </row>
-    <row r="747" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -42868,7 +42868,7 @@
       <c r="J747" s="1"/>
       <c r="K747" s="1"/>
     </row>
-    <row r="748" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -42897,7 +42897,7 @@
       <c r="J748" s="1"/>
       <c r="K748" s="1"/>
     </row>
-    <row r="749" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -42926,7 +42926,7 @@
       <c r="J749" s="1"/>
       <c r="K749" s="1"/>
     </row>
-    <row r="750" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -42955,7 +42955,7 @@
       <c r="J750" s="1"/>
       <c r="K750" s="1"/>
     </row>
-    <row r="751" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -42984,7 +42984,7 @@
       <c r="J751" s="1"/>
       <c r="K751" s="1"/>
     </row>
-    <row r="752" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -43013,7 +43013,7 @@
       <c r="J752" s="1"/>
       <c r="K752" s="1"/>
     </row>
-    <row r="753" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -43042,7 +43042,7 @@
       <c r="J753" s="1"/>
       <c r="K753" s="1"/>
     </row>
-    <row r="754" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -43071,7 +43071,7 @@
       <c r="J754" s="1"/>
       <c r="K754" s="1"/>
     </row>
-    <row r="755" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -43100,7 +43100,7 @@
       <c r="J755" s="1"/>
       <c r="K755" s="1"/>
     </row>
-    <row r="756" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -43129,7 +43129,7 @@
       <c r="J756" s="1"/>
       <c r="K756" s="1"/>
     </row>
-    <row r="757" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -43158,7 +43158,7 @@
       <c r="J757" s="1"/>
       <c r="K757" s="1"/>
     </row>
-    <row r="758" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -43187,7 +43187,7 @@
       <c r="J758" s="1"/>
       <c r="K758" s="1"/>
     </row>
-    <row r="759" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -43216,7 +43216,7 @@
       <c r="J759" s="1"/>
       <c r="K759" s="1"/>
     </row>
-    <row r="760" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -43245,7 +43245,7 @@
       <c r="J760" s="1"/>
       <c r="K760" s="1"/>
     </row>
-    <row r="761" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -43274,7 +43274,7 @@
       <c r="J761" s="1"/>
       <c r="K761" s="1"/>
     </row>
-    <row r="762" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -43303,7 +43303,7 @@
       <c r="J762" s="1"/>
       <c r="K762" s="1"/>
     </row>
-    <row r="763" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -43332,7 +43332,7 @@
       <c r="J763" s="1"/>
       <c r="K763" s="1"/>
     </row>
-    <row r="764" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -43361,7 +43361,7 @@
       <c r="J764" s="1"/>
       <c r="K764" s="1"/>
     </row>
-    <row r="765" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -43390,7 +43390,7 @@
       <c r="J765" s="1"/>
       <c r="K765" s="1"/>
     </row>
-    <row r="766" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -43419,7 +43419,7 @@
       <c r="J766" s="1"/>
       <c r="K766" s="1"/>
     </row>
-    <row r="767" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -43448,7 +43448,7 @@
       <c r="J767" s="1"/>
       <c r="K767" s="1"/>
     </row>
-    <row r="768" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -43477,7 +43477,7 @@
       <c r="J768" s="1"/>
       <c r="K768" s="1"/>
     </row>
-    <row r="769" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -43506,7 +43506,7 @@
       <c r="J769" s="1"/>
       <c r="K769" s="1"/>
     </row>
-    <row r="770" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -43535,7 +43535,7 @@
       <c r="J770" s="1"/>
       <c r="K770" s="1"/>
     </row>
-    <row r="771" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -43564,7 +43564,7 @@
       <c r="J771" s="1"/>
       <c r="K771" s="1"/>
     </row>
-    <row r="772" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -43593,7 +43593,7 @@
       <c r="J772" s="1"/>
       <c r="K772" s="1"/>
     </row>
-    <row r="773" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -43622,7 +43622,7 @@
       <c r="J773" s="1"/>
       <c r="K773" s="1"/>
     </row>
-    <row r="774" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -43651,7 +43651,7 @@
       <c r="J774" s="1"/>
       <c r="K774" s="1"/>
     </row>
-    <row r="775" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -43680,7 +43680,7 @@
       <c r="J775" s="1"/>
       <c r="K775" s="1"/>
     </row>
-    <row r="776" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -43709,7 +43709,7 @@
       <c r="J776" s="1"/>
       <c r="K776" s="1"/>
     </row>
-    <row r="777" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -43738,7 +43738,7 @@
       <c r="J777" s="1"/>
       <c r="K777" s="1"/>
     </row>
-    <row r="778" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -43767,7 +43767,7 @@
       <c r="J778" s="1"/>
       <c r="K778" s="1"/>
     </row>
-    <row r="779" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -43796,7 +43796,7 @@
       <c r="J779" s="1"/>
       <c r="K779" s="1"/>
     </row>
-    <row r="780" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -43825,7 +43825,7 @@
       <c r="J780" s="1"/>
       <c r="K780" s="1"/>
     </row>
-    <row r="781" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -43854,7 +43854,7 @@
       <c r="J781" s="1"/>
       <c r="K781" s="1"/>
     </row>
-    <row r="782" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -43883,7 +43883,7 @@
       </c>
       <c r="K782" s="1"/>
     </row>
-    <row r="783" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -43912,7 +43912,7 @@
       <c r="J783" s="1"/>
       <c r="K783" s="1"/>
     </row>
-    <row r="784" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -43941,7 +43941,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="785" spans="1:11" ht="224" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -43970,7 +43970,7 @@
       </c>
       <c r="K785" s="1"/>
     </row>
-    <row r="786" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -43999,7 +43999,7 @@
       <c r="J786" s="1"/>
       <c r="K786" s="1"/>
     </row>
-    <row r="787" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -44028,7 +44028,7 @@
       <c r="J787" s="1"/>
       <c r="K787" s="1"/>
     </row>
-    <row r="788" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -44057,7 +44057,7 @@
       <c r="J788" s="1"/>
       <c r="K788" s="1"/>
     </row>
-    <row r="789" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -44086,7 +44086,7 @@
       <c r="J789" s="1"/>
       <c r="K789" s="1"/>
     </row>
-    <row r="790" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -44115,7 +44115,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="791" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -44144,7 +44144,7 @@
       <c r="J791" s="1"/>
       <c r="K791" s="1"/>
     </row>
-    <row r="792" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -44173,7 +44173,7 @@
       <c r="J792" s="1"/>
       <c r="K792" s="1"/>
     </row>
-    <row r="793" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -44202,7 +44202,7 @@
       <c r="J793" s="1"/>
       <c r="K793" s="1"/>
     </row>
-    <row r="794" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -44231,7 +44231,7 @@
       <c r="J794" s="1"/>
       <c r="K794" s="1"/>
     </row>
-    <row r="795" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -44260,7 +44260,7 @@
       <c r="J795" s="1"/>
       <c r="K795" s="1"/>
     </row>
-    <row r="796" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -44289,7 +44289,7 @@
       <c r="J796" s="1"/>
       <c r="K796" s="1"/>
     </row>
-    <row r="797" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -44318,7 +44318,7 @@
       <c r="J797" s="1"/>
       <c r="K797" s="1"/>
     </row>
-    <row r="798" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -44347,7 +44347,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="799" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -44376,7 +44376,7 @@
       <c r="J799" s="1"/>
       <c r="K799" s="1"/>
     </row>
-    <row r="800" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -44405,7 +44405,7 @@
       <c r="J800" s="1"/>
       <c r="K800" s="1"/>
     </row>
-    <row r="801" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A801" s="1">
         <v>799</v>
       </c>
@@ -44434,7 +44434,7 @@
       <c r="J801" s="1"/>
       <c r="K801" s="1"/>
     </row>
-    <row r="802" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A802" s="1">
         <v>800</v>
       </c>
@@ -44463,7 +44463,7 @@
       <c r="J802" s="1"/>
       <c r="K802" s="1"/>
     </row>
-    <row r="803" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A803" s="1">
         <v>801</v>
       </c>
@@ -44492,7 +44492,7 @@
       <c r="J803" s="1"/>
       <c r="K803" s="1"/>
     </row>
-    <row r="804" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A804" s="1">
         <v>802</v>
       </c>
@@ -44521,7 +44521,7 @@
       <c r="J804" s="1"/>
       <c r="K804" s="1"/>
     </row>
-    <row r="805" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A805" s="1">
         <v>803</v>
       </c>
@@ -44550,7 +44550,7 @@
       <c r="J805" s="1"/>
       <c r="K805" s="1"/>
     </row>
-    <row r="806" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A806" s="1">
         <v>804</v>
       </c>
@@ -44579,7 +44579,7 @@
       <c r="J806" s="1"/>
       <c r="K806" s="1"/>
     </row>
-    <row r="807" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A807" s="1">
         <v>805</v>
       </c>
@@ -44608,7 +44608,7 @@
       <c r="J807" s="1"/>
       <c r="K807" s="1"/>
     </row>
-    <row r="808" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A808" s="1">
         <v>806</v>
       </c>
@@ -44637,7 +44637,7 @@
       </c>
       <c r="K808" s="1"/>
     </row>
-    <row r="809" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A809" s="1">
         <v>807</v>
       </c>
@@ -44666,7 +44666,7 @@
       </c>
       <c r="K809" s="1"/>
     </row>
-    <row r="810" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A810" s="1">
         <v>808</v>
       </c>
@@ -44695,7 +44695,7 @@
       </c>
       <c r="K810" s="1"/>
     </row>
-    <row r="811" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A811" s="1">
         <v>809</v>
       </c>
@@ -44724,7 +44724,7 @@
       <c r="J811" s="1"/>
       <c r="K811" s="1"/>
     </row>
-    <row r="812" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A812" s="1">
         <v>810</v>
       </c>
@@ -44753,7 +44753,7 @@
       <c r="J812" s="1"/>
       <c r="K812" s="1"/>
     </row>
-    <row r="813" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A813" s="1">
         <v>811</v>
       </c>
@@ -44782,7 +44782,7 @@
       </c>
       <c r="K813" s="1"/>
     </row>
-    <row r="814" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A814" s="1">
         <v>812</v>
       </c>
@@ -44811,7 +44811,7 @@
       </c>
       <c r="K814" s="1"/>
     </row>
-    <row r="815" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A815" s="1">
         <v>813</v>
       </c>
@@ -44840,7 +44840,7 @@
       </c>
       <c r="K815" s="1"/>
     </row>
-    <row r="816" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A816" s="1">
         <v>814</v>
       </c>
@@ -44869,7 +44869,7 @@
       <c r="J816" s="1"/>
       <c r="K816" s="1"/>
     </row>
-    <row r="817" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A817" s="1">
         <v>815</v>
       </c>
@@ -44898,7 +44898,7 @@
       <c r="J817" s="1"/>
       <c r="K817" s="1"/>
     </row>
-    <row r="818" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A818" s="1">
         <v>816</v>
       </c>
@@ -44927,7 +44927,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="819" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A819" s="1">
         <v>817</v>
       </c>
@@ -44958,7 +44958,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="820" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A820" s="1">
         <v>818</v>
       </c>
@@ -44989,7 +44989,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="821" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A821" s="1">
         <v>819</v>
       </c>
@@ -45020,7 +45020,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="822" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A822" s="1">
         <v>820</v>
       </c>
@@ -45051,7 +45051,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="823" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A823" s="1">
         <v>821</v>
       </c>
@@ -45080,7 +45080,7 @@
       <c r="J823" s="1"/>
       <c r="K823" s="1"/>
     </row>
-    <row r="824" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A824" s="1">
         <v>822</v>
       </c>
@@ -45109,7 +45109,7 @@
       </c>
       <c r="K824" s="1"/>
     </row>
-    <row r="825" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A825" s="1">
         <v>823</v>
       </c>
@@ -45140,7 +45140,7 @@
       </c>
       <c r="K825" s="1"/>
     </row>
-    <row r="826" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A826" s="1">
         <v>824</v>
       </c>
@@ -45169,7 +45169,7 @@
       <c r="J826" s="1"/>
       <c r="K826" s="1"/>
     </row>
-    <row r="827" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A827" s="1">
         <v>825</v>
       </c>
@@ -45198,7 +45198,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="828" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A828" s="1">
         <v>826</v>
       </c>
@@ -45227,7 +45227,7 @@
       <c r="J828" s="1"/>
       <c r="K828" s="1"/>
     </row>
-    <row r="829" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A829" s="1">
         <v>827</v>
       </c>
@@ -45256,7 +45256,7 @@
       <c r="J829" s="1"/>
       <c r="K829" s="1"/>
     </row>
-    <row r="830" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A830" s="1">
         <v>828</v>
       </c>
@@ -45285,7 +45285,7 @@
       <c r="J830" s="1"/>
       <c r="K830" s="1"/>
     </row>
-    <row r="831" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A831" s="1">
         <v>829</v>
       </c>
@@ -45314,7 +45314,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="832" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A832" s="1">
         <v>830</v>
       </c>
@@ -45343,7 +45343,7 @@
       </c>
       <c r="K832" s="1"/>
     </row>
-    <row r="833" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A833" s="1">
         <v>831</v>
       </c>
@@ -45372,7 +45372,7 @@
       <c r="J833" s="1"/>
       <c r="K833" s="1"/>
     </row>
-    <row r="834" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A834" s="1">
         <v>832</v>
       </c>
@@ -45403,7 +45403,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="835" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A835" s="1">
         <v>833</v>
       </c>
@@ -45434,7 +45434,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="836" spans="1:11" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:11" ht="183" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A836" s="1">
         <v>834</v>
       </c>
@@ -45465,7 +45465,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="837" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A837" s="1">
         <v>835</v>
       </c>
@@ -45496,7 +45496,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="838" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A838" s="1">
         <v>836</v>
       </c>
@@ -45527,7 +45527,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="839" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A839" s="1">
         <v>837</v>
       </c>
@@ -45558,7 +45558,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="840" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A840" s="1">
         <v>838</v>
       </c>
@@ -45587,7 +45587,7 @@
       <c r="J840" s="1"/>
       <c r="K840" s="1"/>
     </row>
-    <row r="841" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A841" s="1">
         <v>839</v>
       </c>
@@ -45616,7 +45616,7 @@
       <c r="J841" s="1"/>
       <c r="K841" s="1"/>
     </row>
-    <row r="842" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A842" s="1">
         <v>840</v>
       </c>
@@ -45645,7 +45645,7 @@
       <c r="J842" s="1"/>
       <c r="K842" s="1"/>
     </row>
-    <row r="843" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A843" s="1">
         <v>841</v>
       </c>
@@ -45674,7 +45674,7 @@
       <c r="J843" s="1"/>
       <c r="K843" s="1"/>
     </row>
-    <row r="844" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A844" s="1">
         <v>842</v>
       </c>
@@ -45703,7 +45703,7 @@
       <c r="J844" s="1"/>
       <c r="K844" s="1"/>
     </row>
-    <row r="845" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A845" s="1">
         <v>843</v>
       </c>
@@ -45732,7 +45732,7 @@
       <c r="J845" s="1"/>
       <c r="K845" s="1"/>
     </row>
-    <row r="846" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A846" s="1">
         <v>844</v>
       </c>
@@ -45761,7 +45761,7 @@
       <c r="J846" s="1"/>
       <c r="K846" s="1"/>
     </row>
-    <row r="847" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A847" s="1">
         <v>845</v>
       </c>
@@ -45790,7 +45790,7 @@
       <c r="J847" s="1"/>
       <c r="K847" s="1"/>
     </row>
-    <row r="848" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A848" s="1">
         <v>846</v>
       </c>
@@ -45819,7 +45819,7 @@
       <c r="J848" s="1"/>
       <c r="K848" s="1"/>
     </row>
-    <row r="849" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A849" s="1">
         <v>847</v>
       </c>
@@ -45848,7 +45848,7 @@
       <c r="J849" s="1"/>
       <c r="K849" s="1"/>
     </row>
-    <row r="850" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A850" s="1">
         <v>848</v>
       </c>
@@ -45877,7 +45877,7 @@
       <c r="J850" s="1"/>
       <c r="K850" s="1"/>
     </row>
-    <row r="851" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A851" s="1">
         <v>849</v>
       </c>
@@ -45906,7 +45906,7 @@
       <c r="J851" s="1"/>
       <c r="K851" s="1"/>
     </row>
-    <row r="852" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A852" s="1">
         <v>850</v>
       </c>
@@ -45935,7 +45935,7 @@
       <c r="J852" s="1"/>
       <c r="K852" s="1"/>
     </row>
-    <row r="853" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A853" s="1">
         <v>851</v>
       </c>
@@ -45964,7 +45964,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="854" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A854" s="1">
         <v>852</v>
       </c>
@@ -45993,7 +45993,7 @@
       <c r="J854" s="1"/>
       <c r="K854" s="1"/>
     </row>
-    <row r="855" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A855" s="1">
         <v>853</v>
       </c>
@@ -46022,7 +46022,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="856" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A856" s="1">
         <v>854</v>
       </c>
@@ -46051,7 +46051,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="857" spans="1:11" ht="176" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A857" s="1">
         <v>855</v>
       </c>
@@ -46080,7 +46080,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="858" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A858" s="1">
         <v>856</v>
       </c>
@@ -46109,7 +46109,7 @@
       <c r="J858" s="1"/>
       <c r="K858" s="1"/>
     </row>
-    <row r="859" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A859" s="1">
         <v>857</v>
       </c>
@@ -46138,7 +46138,7 @@
       </c>
       <c r="K859" s="1"/>
     </row>
-    <row r="860" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A860" s="1">
         <v>858</v>
       </c>
@@ -46167,7 +46167,7 @@
       <c r="J860" s="1"/>
       <c r="K860" s="1"/>
     </row>
-    <row r="861" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A861" s="1">
         <v>859</v>
       </c>
@@ -46196,7 +46196,7 @@
       <c r="J861" s="1"/>
       <c r="K861" s="1"/>
     </row>
-    <row r="862" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A862" s="1">
         <v>860</v>
       </c>
@@ -46225,7 +46225,7 @@
       <c r="J862" s="1"/>
       <c r="K862" s="1"/>
     </row>
-    <row r="863" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A863" s="1">
         <v>861</v>
       </c>
@@ -46254,7 +46254,7 @@
       <c r="J863" s="1"/>
       <c r="K863" s="1"/>
     </row>
-    <row r="864" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A864" s="1">
         <v>862</v>
       </c>
@@ -46283,7 +46283,7 @@
       <c r="J864" s="1"/>
       <c r="K864" s="1"/>
     </row>
-    <row r="865" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A865" s="1">
         <v>863</v>
       </c>
@@ -46312,7 +46312,7 @@
       <c r="J865" s="1"/>
       <c r="K865" s="1"/>
     </row>
-    <row r="866" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A866" s="1">
         <v>864</v>
       </c>
@@ -46341,7 +46341,7 @@
       <c r="J866" s="1"/>
       <c r="K866" s="1"/>
     </row>
-    <row r="867" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A867" s="1">
         <v>865</v>
       </c>
@@ -46370,7 +46370,7 @@
       <c r="J867" s="1"/>
       <c r="K867" s="1"/>
     </row>
-    <row r="868" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A868" s="1">
         <v>866</v>
       </c>
@@ -46399,7 +46399,7 @@
       <c r="J868" s="1"/>
       <c r="K868" s="1"/>
     </row>
-    <row r="869" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A869" s="1">
         <v>867</v>
       </c>
@@ -46428,7 +46428,7 @@
       <c r="J869" s="1"/>
       <c r="K869" s="1"/>
     </row>
-    <row r="870" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A870" s="1">
         <v>868</v>
       </c>
@@ -46457,7 +46457,7 @@
       <c r="J870" s="1"/>
       <c r="K870" s="1"/>
     </row>
-    <row r="871" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A871" s="1">
         <v>869</v>
       </c>
@@ -46486,7 +46486,7 @@
       <c r="J871" s="1"/>
       <c r="K871" s="1"/>
     </row>
-    <row r="872" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A872" s="1">
         <v>870</v>
       </c>
@@ -46515,7 +46515,7 @@
       <c r="J872" s="1"/>
       <c r="K872" s="1"/>
     </row>
-    <row r="873" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A873" s="1">
         <v>871</v>
       </c>
@@ -46544,7 +46544,7 @@
       <c r="J873" s="1"/>
       <c r="K873" s="1"/>
     </row>
-    <row r="874" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A874" s="1">
         <v>872</v>
       </c>
@@ -46573,7 +46573,7 @@
       <c r="J874" s="1"/>
       <c r="K874" s="1"/>
     </row>
-    <row r="875" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A875" s="1">
         <v>873</v>
       </c>
@@ -46602,7 +46602,7 @@
       <c r="J875" s="1"/>
       <c r="K875" s="1"/>
     </row>
-    <row r="876" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A876" s="1">
         <v>874</v>
       </c>
@@ -46631,7 +46631,7 @@
       <c r="J876" s="1"/>
       <c r="K876" s="1"/>
     </row>
-    <row r="877" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A877" s="1">
         <v>875</v>
       </c>
@@ -46660,7 +46660,7 @@
       <c r="J877" s="1"/>
       <c r="K877" s="1"/>
     </row>
-    <row r="878" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A878" s="1">
         <v>876</v>
       </c>
@@ -46689,7 +46689,7 @@
       <c r="J878" s="1"/>
       <c r="K878" s="1"/>
     </row>
-    <row r="879" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A879" s="1">
         <v>877</v>
       </c>
@@ -46718,7 +46718,7 @@
       <c r="J879" s="1"/>
       <c r="K879" s="1"/>
     </row>
-    <row r="880" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A880" s="1">
         <v>878</v>
       </c>
@@ -46747,7 +46747,7 @@
       <c r="J880" s="1"/>
       <c r="K880" s="1"/>
     </row>
-    <row r="881" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A881" s="1">
         <v>879</v>
       </c>
@@ -46776,7 +46776,7 @@
       <c r="J881" s="1"/>
       <c r="K881" s="1"/>
     </row>
-    <row r="882" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A882" s="1">
         <v>880</v>
       </c>
@@ -46805,7 +46805,7 @@
       <c r="J882" s="1"/>
       <c r="K882" s="1"/>
     </row>
-    <row r="883" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A883" s="1">
         <v>881</v>
       </c>
@@ -46834,7 +46834,7 @@
       <c r="J883" s="1"/>
       <c r="K883" s="1"/>
     </row>
-    <row r="884" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A884" s="1">
         <v>882</v>
       </c>
@@ -46863,7 +46863,7 @@
       <c r="J884" s="1"/>
       <c r="K884" s="1"/>
     </row>
-    <row r="885" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A885" s="1">
         <v>883</v>
       </c>
@@ -46892,7 +46892,7 @@
       <c r="J885" s="1"/>
       <c r="K885" s="1"/>
     </row>
-    <row r="886" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A886" s="1">
         <v>884</v>
       </c>
@@ -46921,7 +46921,7 @@
       <c r="J886" s="1"/>
       <c r="K886" s="1"/>
     </row>
-    <row r="887" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A887" s="1">
         <v>885</v>
       </c>
@@ -46950,7 +46950,7 @@
       <c r="J887" s="1"/>
       <c r="K887" s="1"/>
     </row>
-    <row r="888" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A888" s="1">
         <v>886</v>
       </c>
@@ -46979,7 +46979,7 @@
       <c r="J888" s="1"/>
       <c r="K888" s="1"/>
     </row>
-    <row r="889" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A889" s="1">
         <v>887</v>
       </c>
@@ -47008,7 +47008,7 @@
       <c r="J889" s="1"/>
       <c r="K889" s="1"/>
     </row>
-    <row r="890" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A890" s="1">
         <v>888</v>
       </c>
@@ -47037,7 +47037,7 @@
       <c r="J890" s="1"/>
       <c r="K890" s="1"/>
     </row>
-    <row r="891" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A891" s="1">
         <v>889</v>
       </c>
@@ -47066,7 +47066,7 @@
       <c r="J891" s="1"/>
       <c r="K891" s="1"/>
     </row>
-    <row r="892" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A892" s="1">
         <v>890</v>
       </c>
@@ -47095,7 +47095,7 @@
       <c r="J892" s="1"/>
       <c r="K892" s="1"/>
     </row>
-    <row r="893" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A893" s="1">
         <v>891</v>
       </c>
@@ -47124,7 +47124,7 @@
       <c r="J893" s="1"/>
       <c r="K893" s="1"/>
     </row>
-    <row r="894" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A894" s="1">
         <v>892</v>
       </c>
@@ -47153,7 +47153,7 @@
       <c r="J894" s="1"/>
       <c r="K894" s="1"/>
     </row>
-    <row r="895" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A895" s="1">
         <v>893</v>
       </c>
@@ -47182,7 +47182,7 @@
       <c r="J895" s="1"/>
       <c r="K895" s="1"/>
     </row>
-    <row r="896" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A896" s="1">
         <v>894</v>
       </c>
@@ -47211,7 +47211,7 @@
       <c r="J896" s="1"/>
       <c r="K896" s="1"/>
     </row>
-    <row r="897" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A897" s="1">
         <v>895</v>
       </c>
@@ -47240,7 +47240,7 @@
       <c r="J897" s="1"/>
       <c r="K897" s="1"/>
     </row>
-    <row r="898" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A898" s="1">
         <v>896</v>
       </c>
@@ -47269,7 +47269,7 @@
       <c r="J898" s="1"/>
       <c r="K898" s="1"/>
     </row>
-    <row r="899" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A899" s="1">
         <v>897</v>
       </c>
@@ -47298,7 +47298,7 @@
       <c r="J899" s="1"/>
       <c r="K899" s="1"/>
     </row>
-    <row r="900" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A900" s="1">
         <v>898</v>
       </c>
@@ -47327,7 +47327,7 @@
       <c r="J900" s="1"/>
       <c r="K900" s="1"/>
     </row>
-    <row r="901" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A901" s="1">
         <v>899</v>
       </c>
@@ -47356,7 +47356,7 @@
       </c>
       <c r="K901" s="1"/>
     </row>
-    <row r="902" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A902" s="1">
         <v>900</v>
       </c>
@@ -47385,7 +47385,7 @@
       <c r="J902" s="1"/>
       <c r="K902" s="1"/>
     </row>
-    <row r="903" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A903" s="1">
         <v>901</v>
       </c>
@@ -47414,7 +47414,7 @@
       <c r="J903" s="1"/>
       <c r="K903" s="1"/>
     </row>
-    <row r="904" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A904" s="1">
         <v>902</v>
       </c>
@@ -47443,7 +47443,7 @@
       <c r="J904" s="1"/>
       <c r="K904" s="1"/>
     </row>
-    <row r="905" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A905" s="1">
         <v>903</v>
       </c>
@@ -47472,7 +47472,7 @@
       <c r="J905" s="1"/>
       <c r="K905" s="1"/>
     </row>
-    <row r="906" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A906" s="1">
         <v>904</v>
       </c>
@@ -47501,7 +47501,7 @@
       <c r="J906" s="1"/>
       <c r="K906" s="1"/>
     </row>
-    <row r="907" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A907" s="1">
         <v>905</v>
       </c>
@@ -47530,7 +47530,7 @@
       <c r="J907" s="1"/>
       <c r="K907" s="1"/>
     </row>
-    <row r="908" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A908" s="1">
         <v>906</v>
       </c>
@@ -47559,7 +47559,7 @@
       <c r="J908" s="1"/>
       <c r="K908" s="1"/>
     </row>
-    <row r="909" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A909" s="1">
         <v>907</v>
       </c>
@@ -47588,7 +47588,7 @@
       <c r="J909" s="1"/>
       <c r="K909" s="1"/>
     </row>
-    <row r="910" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A910" s="1">
         <v>908</v>
       </c>
@@ -47617,7 +47617,7 @@
       <c r="J910" s="1"/>
       <c r="K910" s="1"/>
     </row>
-    <row r="911" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A911" s="1">
         <v>909</v>
       </c>
@@ -47646,7 +47646,7 @@
       <c r="J911" s="1"/>
       <c r="K911" s="1"/>
     </row>
-    <row r="912" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A912" s="1">
         <v>910</v>
       </c>
@@ -47675,7 +47675,7 @@
       </c>
       <c r="K912" s="1"/>
     </row>
-    <row r="913" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A913" s="1">
         <v>911</v>
       </c>
@@ -47704,7 +47704,7 @@
       <c r="J913" s="1"/>
       <c r="K913" s="1"/>
     </row>
-    <row r="914" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A914" s="1">
         <v>912</v>
       </c>
@@ -47733,7 +47733,7 @@
       <c r="J914" s="1"/>
       <c r="K914" s="1"/>
     </row>
-    <row r="915" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A915" s="1">
         <v>913</v>
       </c>
@@ -47762,7 +47762,7 @@
       <c r="J915" s="1"/>
       <c r="K915" s="1"/>
     </row>
-    <row r="916" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A916" s="1">
         <v>914</v>
       </c>
@@ -47791,7 +47791,7 @@
       <c r="J916" s="1"/>
       <c r="K916" s="1"/>
     </row>
-    <row r="917" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A917" s="1">
         <v>915</v>
       </c>
@@ -47820,7 +47820,7 @@
       <c r="J917" s="1"/>
       <c r="K917" s="1"/>
     </row>
-    <row r="918" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A918" s="1">
         <v>916</v>
       </c>
@@ -47849,7 +47849,7 @@
       <c r="J918" s="1"/>
       <c r="K918" s="1"/>
     </row>
-    <row r="919" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A919" s="1">
         <v>917</v>
       </c>
@@ -47878,7 +47878,7 @@
       <c r="J919" s="1"/>
       <c r="K919" s="1"/>
     </row>
-    <row r="920" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A920" s="1">
         <v>918</v>
       </c>
@@ -47907,7 +47907,7 @@
       <c r="J920" s="1"/>
       <c r="K920" s="1"/>
     </row>
-    <row r="921" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A921" s="1">
         <v>919</v>
       </c>
@@ -47936,7 +47936,7 @@
       </c>
       <c r="K921" s="1"/>
     </row>
-    <row r="922" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A922" s="1">
         <v>920</v>
       </c>
@@ -47965,7 +47965,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="923" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A923" s="1">
         <v>921</v>
       </c>
@@ -47994,7 +47994,7 @@
       <c r="J923" s="1"/>
       <c r="K923" s="1"/>
     </row>
-    <row r="924" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A924" s="1">
         <v>922</v>
       </c>
@@ -48023,7 +48023,7 @@
       <c r="J924" s="1"/>
       <c r="K924" s="1"/>
     </row>
-    <row r="925" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A925" s="1">
         <v>923</v>
       </c>
@@ -48052,7 +48052,7 @@
       <c r="J925" s="1"/>
       <c r="K925" s="1"/>
     </row>
-    <row r="926" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A926" s="1">
         <v>924</v>
       </c>
@@ -48081,7 +48081,7 @@
       <c r="J926" s="1"/>
       <c r="K926" s="1"/>
     </row>
-    <row r="927" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A927" s="1">
         <v>925</v>
       </c>
@@ -48110,7 +48110,7 @@
       <c r="J927" s="1"/>
       <c r="K927" s="1"/>
     </row>
-    <row r="928" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A928" s="1">
         <v>926</v>
       </c>
@@ -48139,7 +48139,7 @@
       <c r="J928" s="1"/>
       <c r="K928" s="1"/>
     </row>
-    <row r="929" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A929" s="1">
         <v>927</v>
       </c>
@@ -48168,7 +48168,7 @@
       <c r="J929" s="1"/>
       <c r="K929" s="1"/>
     </row>
-    <row r="930" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A930" s="1">
         <v>928</v>
       </c>
@@ -48197,7 +48197,7 @@
       <c r="J930" s="1"/>
       <c r="K930" s="1"/>
     </row>
-    <row r="931" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A931" s="1">
         <v>929</v>
       </c>
@@ -48226,7 +48226,7 @@
       <c r="J931" s="1"/>
       <c r="K931" s="1"/>
     </row>
-    <row r="932" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A932" s="1">
         <v>930</v>
       </c>
@@ -48255,7 +48255,7 @@
       <c r="J932" s="1"/>
       <c r="K932" s="1"/>
     </row>
-    <row r="933" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A933" s="1">
         <v>931</v>
       </c>
@@ -48284,7 +48284,7 @@
       <c r="J933" s="1"/>
       <c r="K933" s="1"/>
     </row>
-    <row r="934" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A934" s="1">
         <v>932</v>
       </c>
@@ -48313,7 +48313,7 @@
       <c r="J934" s="1"/>
       <c r="K934" s="1"/>
     </row>
-    <row r="935" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A935" s="1">
         <v>933</v>
       </c>
@@ -48342,7 +48342,7 @@
       <c r="J935" s="1"/>
       <c r="K935" s="1"/>
     </row>
-    <row r="936" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A936" s="1">
         <v>934</v>
       </c>
@@ -48371,7 +48371,7 @@
       <c r="J936" s="1"/>
       <c r="K936" s="1"/>
     </row>
-    <row r="937" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A937" s="1">
         <v>935</v>
       </c>
@@ -48400,7 +48400,7 @@
       <c r="J937" s="1"/>
       <c r="K937" s="1"/>
     </row>
-    <row r="938" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A938" s="1">
         <v>936</v>
       </c>
@@ -48429,7 +48429,7 @@
       <c r="J938" s="1"/>
       <c r="K938" s="1"/>
     </row>
-    <row r="939" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A939" s="1">
         <v>937</v>
       </c>
@@ -48458,7 +48458,7 @@
       <c r="J939" s="1"/>
       <c r="K939" s="1"/>
     </row>
-    <row r="940" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A940" s="1">
         <v>938</v>
       </c>
@@ -48487,7 +48487,7 @@
       <c r="J940" s="1"/>
       <c r="K940" s="1"/>
     </row>
-    <row r="941" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A941" s="1">
         <v>939</v>
       </c>
@@ -48516,7 +48516,7 @@
       <c r="J941" s="1"/>
       <c r="K941" s="1"/>
     </row>
-    <row r="942" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A942" s="1">
         <v>940</v>
       </c>
@@ -48545,7 +48545,7 @@
       <c r="J942" s="1"/>
       <c r="K942" s="1"/>
     </row>
-    <row r="943" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A943" s="1">
         <v>941</v>
       </c>
@@ -48574,7 +48574,7 @@
       <c r="J943" s="1"/>
       <c r="K943" s="1"/>
     </row>
-    <row r="944" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A944" s="1">
         <v>942</v>
       </c>
@@ -48603,7 +48603,7 @@
       <c r="J944" s="1"/>
       <c r="K944" s="1"/>
     </row>
-    <row r="945" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A945" s="1">
         <v>943</v>
       </c>
@@ -48632,7 +48632,7 @@
       <c r="J945" s="1"/>
       <c r="K945" s="1"/>
     </row>
-    <row r="946" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A946" s="1">
         <v>944</v>
       </c>
@@ -48661,7 +48661,7 @@
       <c r="J946" s="1"/>
       <c r="K946" s="1"/>
     </row>
-    <row r="947" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A947" s="1">
         <v>945</v>
       </c>
@@ -48690,7 +48690,7 @@
       <c r="J947" s="1"/>
       <c r="K947" s="1"/>
     </row>
-    <row r="948" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A948" s="1">
         <v>946</v>
       </c>
@@ -48719,7 +48719,7 @@
       <c r="J948" s="1"/>
       <c r="K948" s="1"/>
     </row>
-    <row r="949" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A949" s="1">
         <v>947</v>
       </c>
@@ -48748,7 +48748,7 @@
       <c r="J949" s="1"/>
       <c r="K949" s="1"/>
     </row>
-    <row r="950" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A950" s="1">
         <v>948</v>
       </c>
@@ -48777,7 +48777,7 @@
       <c r="J950" s="1"/>
       <c r="K950" s="1"/>
     </row>
-    <row r="951" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A951" s="1">
         <v>949</v>
       </c>
@@ -48806,7 +48806,7 @@
       <c r="J951" s="1"/>
       <c r="K951" s="1"/>
     </row>
-    <row r="952" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A952" s="1">
         <v>950</v>
       </c>
@@ -48835,7 +48835,7 @@
       <c r="J952" s="1"/>
       <c r="K952" s="1"/>
     </row>
-    <row r="953" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A953" s="1">
         <v>951</v>
       </c>
@@ -48864,535 +48864,535 @@
       <c r="J953" s="1"/>
       <c r="K953" s="1"/>
     </row>
-    <row r="954" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C954" s="2"/>
     </row>
-    <row r="955" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C955" s="2"/>
     </row>
-    <row r="956" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C956" s="2"/>
     </row>
-    <row r="957" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C957" s="2"/>
     </row>
-    <row r="958" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C958" s="2"/>
     </row>
-    <row r="959" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C959" s="2"/>
     </row>
-    <row r="960" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C960" s="2"/>
     </row>
-    <row r="961" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="961" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C961" s="2"/>
     </row>
-    <row r="962" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="962" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C962" s="2"/>
     </row>
-    <row r="963" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="963" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C963" s="2"/>
     </row>
-    <row r="964" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="964" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C964" s="2"/>
     </row>
-    <row r="965" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="965" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C965" s="2"/>
     </row>
-    <row r="966" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="966" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C966" s="2"/>
     </row>
-    <row r="967" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="967" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C967" s="2"/>
     </row>
-    <row r="968" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="968" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C968" s="2"/>
     </row>
-    <row r="969" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="969" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C969" s="2"/>
     </row>
-    <row r="970" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="970" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C970" s="2"/>
     </row>
-    <row r="971" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="971" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C971" s="2"/>
     </row>
-    <row r="972" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="972" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C972" s="2"/>
     </row>
-    <row r="973" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="973" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C973" s="2"/>
     </row>
-    <row r="974" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="974" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C974" s="2"/>
     </row>
-    <row r="976" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="976" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C976" s="2"/>
     </row>
-    <row r="977" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="977" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C977" s="2"/>
     </row>
-    <row r="978" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="978" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C978" s="2"/>
     </row>
-    <row r="979" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="979" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C979" s="2"/>
     </row>
-    <row r="980" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="980" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C980" s="2"/>
     </row>
-    <row r="981" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="981" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C981" s="2"/>
     </row>
-    <row r="982" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="982" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C982" s="2"/>
     </row>
-    <row r="983" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="983" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C983" s="2"/>
     </row>
-    <row r="984" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="984" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C984" s="2"/>
     </row>
-    <row r="985" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="985" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C985" s="2"/>
     </row>
-    <row r="986" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="986" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C986" s="2"/>
     </row>
-    <row r="987" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="987" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C987" s="2"/>
     </row>
-    <row r="988" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="988" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C988" s="2"/>
     </row>
-    <row r="989" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="989" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C989" s="2"/>
     </row>
-    <row r="990" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="990" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C990" s="2"/>
     </row>
-    <row r="991" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="991" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C991" s="2"/>
     </row>
-    <row r="992" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="992" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C992" s="2"/>
     </row>
-    <row r="993" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="993" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C993" s="2"/>
     </row>
-    <row r="994" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="994" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C994" s="2"/>
     </row>
-    <row r="995" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="995" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C995" s="2"/>
     </row>
-    <row r="996" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="996" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C996" s="2"/>
     </row>
-    <row r="997" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="997" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C997" s="2"/>
     </row>
-    <row r="998" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="998" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C998" s="2"/>
     </row>
-    <row r="999" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="999" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C999" s="2"/>
     </row>
-    <row r="1000" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1000" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1000" s="2"/>
     </row>
-    <row r="1001" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1001" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1001" s="2"/>
     </row>
-    <row r="1002" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1002" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1002" s="2"/>
     </row>
-    <row r="1003" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1003" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1003" s="2"/>
     </row>
-    <row r="1004" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1004" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1004" s="2"/>
     </row>
-    <row r="1005" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1005" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1005" s="2"/>
     </row>
-    <row r="1006" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1006" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1006" s="2"/>
     </row>
-    <row r="1007" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1007" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1007" s="2"/>
     </row>
-    <row r="1008" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1008" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1008" s="2"/>
     </row>
-    <row r="1009" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1009" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1009" s="2"/>
     </row>
-    <row r="1010" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1010" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1010" s="2"/>
     </row>
-    <row r="1011" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1011" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1011" s="2"/>
     </row>
-    <row r="1012" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1012" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1012" s="2"/>
     </row>
-    <row r="1013" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1013" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1013" s="2"/>
     </row>
-    <row r="1014" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1014" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1014" s="2"/>
     </row>
-    <row r="1015" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1015" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1015" s="2"/>
     </row>
-    <row r="1016" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1016" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1016" s="2"/>
     </row>
-    <row r="1017" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1017" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1017" s="2"/>
     </row>
-    <row r="1019" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1019" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1019" s="2"/>
     </row>
-    <row r="1020" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1020" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1020" s="2"/>
     </row>
-    <row r="1021" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1021" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1021" s="2"/>
     </row>
-    <row r="1022" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1022" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1022" s="2"/>
     </row>
-    <row r="1023" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1023" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1023" s="2"/>
     </row>
-    <row r="1024" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1024" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1024" s="2"/>
     </row>
-    <row r="1026" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1026" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1026" s="2"/>
     </row>
-    <row r="1027" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1027" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1027" s="2"/>
     </row>
-    <row r="1028" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1028" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1028" s="2"/>
     </row>
-    <row r="1029" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1029" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1029" s="2"/>
     </row>
-    <row r="1030" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1030" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1030" s="2"/>
     </row>
-    <row r="1031" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1031" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1031" s="2"/>
     </row>
-    <row r="1032" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1032" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1032" s="2"/>
     </row>
-    <row r="1033" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1033" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1033" s="2"/>
     </row>
-    <row r="1034" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1034" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1034" s="2"/>
     </row>
-    <row r="1035" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1035" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1035" s="2"/>
     </row>
-    <row r="1036" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1036" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1036" s="2"/>
     </row>
-    <row r="1037" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1037" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1037" s="2"/>
     </row>
-    <row r="1038" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1038" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1038" s="2"/>
     </row>
-    <row r="1039" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1039" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1039" s="2"/>
     </row>
-    <row r="1040" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1040" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1040" s="2"/>
     </row>
-    <row r="1042" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1042" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1042" s="2"/>
     </row>
-    <row r="1043" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1043" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1043" s="2"/>
     </row>
-    <row r="1044" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1044" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1044" s="2"/>
     </row>
-    <row r="1045" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1045" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1045" s="2"/>
     </row>
-    <row r="1046" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1046" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1046" s="2"/>
     </row>
-    <row r="1047" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1047" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1047" s="2"/>
     </row>
-    <row r="1048" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1048" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1048" s="2"/>
     </row>
-    <row r="1049" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1049" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1049" s="2"/>
     </row>
-    <row r="1050" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1050" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1050" s="2"/>
     </row>
-    <row r="1051" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1051" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1051" s="2"/>
     </row>
-    <row r="1052" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1052" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1052" s="2"/>
     </row>
-    <row r="1053" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1053" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1053" s="2"/>
     </row>
-    <row r="1054" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1054" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1054" s="2"/>
     </row>
-    <row r="1055" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1055" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1055" s="2"/>
     </row>
-    <row r="1056" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1056" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1056" s="2"/>
     </row>
-    <row r="1057" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1057" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1057" s="2"/>
     </row>
-    <row r="1058" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1058" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1058" s="2"/>
     </row>
-    <row r="1059" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1059" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1059" s="2"/>
     </row>
-    <row r="1060" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1060" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1060" s="2"/>
     </row>
-    <row r="1061" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1061" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1061" s="2"/>
     </row>
-    <row r="1062" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1062" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1062" s="2"/>
     </row>
-    <row r="1063" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1063" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1063" s="2"/>
     </row>
-    <row r="1064" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1064" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1064" s="2"/>
     </row>
-    <row r="1065" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1065" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1065" s="2"/>
     </row>
-    <row r="1066" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1066" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1066" s="2"/>
     </row>
-    <row r="1067" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1067" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1067" s="2"/>
     </row>
-    <row r="1068" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1068" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1068" s="2"/>
     </row>
-    <row r="1069" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1069" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1069" s="2"/>
     </row>
-    <row r="1070" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1070" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1070" s="2"/>
     </row>
-    <row r="1071" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1071" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1071" s="2"/>
     </row>
-    <row r="1072" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1072" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1072" s="2"/>
     </row>
-    <row r="1073" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1073" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1073" s="2"/>
     </row>
-    <row r="1074" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1074" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1074" s="2"/>
     </row>
-    <row r="1075" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1075" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1075" s="2"/>
     </row>
-    <row r="1076" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1076" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1076" s="2"/>
     </row>
-    <row r="1077" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1077" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1077" s="2"/>
     </row>
-    <row r="1078" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1078" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1078" s="2"/>
     </row>
-    <row r="1079" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1079" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1079" s="2"/>
     </row>
-    <row r="1080" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1080" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1080" s="2"/>
     </row>
-    <row r="1081" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1081" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1081" s="2"/>
     </row>
-    <row r="1083" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1083" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1083" s="2"/>
     </row>
-    <row r="1084" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1084" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1084" s="2"/>
     </row>
-    <row r="1085" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1085" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1085" s="2"/>
     </row>
-    <row r="1086" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1086" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1086" s="2"/>
     </row>
-    <row r="1087" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1087" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1087" s="2"/>
     </row>
-    <row r="1088" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1088" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1088" s="2"/>
     </row>
-    <row r="1089" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1089" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1089" s="2"/>
     </row>
-    <row r="1090" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1090" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1090" s="2"/>
     </row>
-    <row r="1091" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1091" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1091" s="2"/>
     </row>
-    <row r="1092" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1092" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1092" s="2"/>
     </row>
-    <row r="1094" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1094" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1094" s="2"/>
     </row>
-    <row r="1095" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1095" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1095" s="2"/>
     </row>
-    <row r="1096" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1096" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1096" s="2"/>
     </row>
-    <row r="1097" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1097" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1097" s="2"/>
     </row>
-    <row r="1098" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1098" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1098" s="2"/>
     </row>
-    <row r="1099" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1099" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1099" s="2"/>
     </row>
-    <row r="1100" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1100" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1100" s="2"/>
     </row>
-    <row r="1101" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1101" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1101" s="2"/>
     </row>
-    <row r="1102" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1102" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1102" s="2"/>
     </row>
-    <row r="1103" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1103" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1103" s="2"/>
     </row>
-    <row r="1104" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1104" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1104" s="2"/>
     </row>
-    <row r="1105" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1105" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1105" s="2"/>
     </row>
-    <row r="1107" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1107" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1107" s="2"/>
     </row>
-    <row r="1108" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1108" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1108" s="2"/>
     </row>
-    <row r="1109" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1109" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1109" s="2"/>
     </row>
-    <row r="1110" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1110" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1110" s="2"/>
     </row>
-    <row r="1111" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1111" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1111" s="2"/>
     </row>
-    <row r="1112" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1112" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1112" s="2"/>
     </row>
-    <row r="1113" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1113" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1113" s="2"/>
     </row>
-    <row r="1114" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1114" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1114" s="2"/>
     </row>
-    <row r="1115" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1115" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1115" s="2"/>
     </row>
-    <row r="1116" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1116" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1116" s="2"/>
     </row>
-    <row r="1117" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1117" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1117" s="2"/>
     </row>
-    <row r="1118" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1118" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1118" s="2"/>
     </row>
-    <row r="1119" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1119" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1119" s="2"/>
     </row>
-    <row r="1120" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1120" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1120" s="2"/>
     </row>
-    <row r="1121" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1121" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1121" s="2"/>
     </row>
-    <row r="1122" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1122" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1122" s="2"/>
     </row>
-    <row r="1123" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1123" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1123" s="2"/>
     </row>
-    <row r="1124" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1124" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1124" s="2"/>
     </row>
-    <row r="1125" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1125" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1125" s="2"/>
     </row>
-    <row r="1126" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1126" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1126" s="2"/>
     </row>
-    <row r="1127" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1127" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1127" s="2"/>
     </row>
-    <row r="1128" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1128" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1128" s="2"/>
     </row>
-    <row r="1129" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1129" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1129" s="2"/>
     </row>
-    <row r="1130" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1130" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1130" s="2"/>
     </row>
-    <row r="1131" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1131" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1131" s="2"/>
     </row>
-    <row r="1132" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1132" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1132" s="2"/>
     </row>
-    <row r="1133" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1133" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1133" s="2"/>
     </row>
-    <row r="1134" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1134" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1134" s="2"/>
     </row>
-    <row r="1135" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1135" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1135" s="2"/>
     </row>
-    <row r="1136" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1136" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1136" s="2"/>
     </row>
-    <row r="1137" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="1137" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1137" s="2"/>
     </row>
   </sheetData>
@@ -49411,39 +49411,39 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="40" t="s">
         <v>1823</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="42" t="s">
         <v>1824</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="44" t="s">
         <v>1825</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="46" t="s">
         <v>1864</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="35" t="s">
         <v>1826</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="37" t="s">
         <v>1827</v>
       </c>
-      <c r="I2" s="46"/>
-    </row>
-    <row r="3" spans="2:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="44"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="2:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="41"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="13" t="s">
         <v>1794</v>
       </c>
@@ -49457,7 +49457,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -49483,7 +49483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -49509,7 +49509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -49535,7 +49535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -49561,7 +49561,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -49587,7 +49587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -49613,7 +49613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -49639,7 +49639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -49665,7 +49665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -49691,7 +49691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -49717,7 +49717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -49743,7 +49743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -49769,7 +49769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -49795,7 +49795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -49821,7 +49821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -49847,7 +49847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -49873,7 +49873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -49899,7 +49899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -49925,7 +49925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="22">
         <v>19</v>
       </c>
@@ -49951,11 +49951,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
+    <row r="23" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="38" t="s">
         <v>1855</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="28">
         <f t="shared" ref="D23:I23" si="0">SUM(D4:D22)</f>
         <v>1458</v>
@@ -50003,16 +50003,16 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>1851</v>
       </c>
@@ -50032,7 +50032,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>1773</v>
       </c>
@@ -50043,7 +50043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>1774</v>
       </c>
@@ -50057,7 +50057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>1775</v>
       </c>
@@ -50077,7 +50077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>1776</v>
       </c>
@@ -50094,7 +50094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>1777</v>
       </c>
@@ -50111,7 +50111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>1778</v>
       </c>
@@ -50125,7 +50125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>1779</v>
       </c>
@@ -50139,7 +50139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>1780</v>
       </c>
@@ -50159,7 +50159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>1781</v>
       </c>
@@ -50173,7 +50173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>1782</v>
       </c>
@@ -50193,7 +50193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>1783</v>
       </c>
@@ -50204,7 +50204,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
         <v>1784</v>
       </c>
@@ -50224,7 +50224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>1785</v>
       </c>
@@ -50244,7 +50244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
         <v>1786</v>
       </c>
@@ -50255,7 +50255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
         <v>1787</v>
       </c>
@@ -50272,7 +50272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
         <v>1788</v>
       </c>
@@ -50286,7 +50286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>1789</v>
       </c>
@@ -50300,7 +50300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
         <v>1790</v>
       </c>
@@ -50320,7 +50320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
         <v>1791</v>
       </c>
@@ -50334,7 +50334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>1852</v>
       </c>
